--- a/Gene_temp_data.xlsx
+++ b/Gene_temp_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate Lab Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200F37C-B40E-46F9-B28C-86460D945615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCA4CF-38E1-406A-9E81-C4CF2ACD4E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="5" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
   </bookViews>
   <sheets>
     <sheet name="Relish" sheetId="14" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BtMid" sheetId="15" r:id="rId3"/>
     <sheet name="IMD" sheetId="16" r:id="rId4"/>
     <sheet name="Gene_Data" sheetId="17" r:id="rId5"/>
+    <sheet name="BtMid_GeneData" sheetId="18" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Gene_Data!$C$1:$C$163</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="192">
   <si>
     <t>Well Position</t>
   </si>
@@ -7918,7 +7919,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11841,11 +11842,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F70D3E-EA3F-4D40-9E3D-2763A8ADCA53}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -11870,7 +11870,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>24</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>1.4968999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>24</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>4.4233000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>24</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>51.712000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>24</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>1.2423</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>24</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>4.2953999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>24</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>20.6371</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>24</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>1.1293</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>24</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>2.4594</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>24</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>44.673900000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>24</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>1.2533000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>24</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>13.443899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>24</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>32.5351</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>24</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>24</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>2.9918</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>24</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>17.4602</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>24</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>0.61080000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>24</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>24</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>30</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>11.2843</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>30</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>2.3896000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>30</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>0.75360000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>30</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>8.2329000000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>30</v>
       </c>
@@ -12192,7 +12192,7 @@
         <v>4.6044999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>30</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>0.79220000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>30</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>11.7745</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>30</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>8.2761999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>30</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>0.32969999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>30</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>6.7778999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>30</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>3.2662</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>1.1875</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>27.4818</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>30</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>30</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>2.5034999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>30</v>
       </c>
@@ -12346,7 +12346,7 @@
         <v>0.62280000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>30</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>30</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>34</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1.4032</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>34</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>0.84630000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>34</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>22.253799999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>34</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>1.9323999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>34</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>2.8921000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>34</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>11.955500000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>34</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>0.91059999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>34</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>2.4357000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>34</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>10.7469</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>34</v>
       </c>
@@ -12514,7 +12514,7 @@
         <v>2.6364000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>34</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>2.3853</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>34</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>6.4763999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>34</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>34</v>
       </c>
@@ -12570,7 +12570,7 @@
         <v>4.8316999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>34</v>
       </c>
@@ -12584,7 +12584,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>34</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>34</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>34</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>0.98444900580502814</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A110">
         <v>24</v>
       </c>
@@ -13396,7 +13396,7 @@
         <v>2.1242971520355334</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A111">
         <v>24</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>4.291706844760796</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A112">
         <v>24</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>4.0973316061281428</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A113">
         <v>24</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>1.4003082825932121</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A114">
         <v>24</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>4.2822781418585629</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A115">
         <v>24</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>24.879857304108231</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A116">
         <v>24</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>2.1361512628337644</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A117">
         <v>24</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>4.4234725395964745</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A118">
         <v>24</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>24.233747546798313</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A119">
         <v>24</v>
       </c>
@@ -13522,7 +13522,7 @@
         <v>2.4320009352248682</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A120">
         <v>24</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>3.2087767766407076</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A121">
         <v>24</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>11.923025326389997</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A122">
         <v>24</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>4.0303255151733959</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A123">
         <v>24</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>5.4793397531315007</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A124">
         <v>24</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>3.8660381950190703</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A125">
         <v>24</v>
       </c>
@@ -13606,7 +13606,7 @@
         <v>0.78798330374844805</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A126">
         <v>24</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>4.1156288923036524</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A127">
         <v>24</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>17.584575159373117</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A128">
         <v>30</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>0.62926575287712383</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A129">
         <v>30</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>1.4813329696016226</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A130">
         <v>30</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A131">
         <v>30</v>
       </c>
@@ -13690,7 +13690,7 @@
         <v>8.4712330715386397</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A132">
         <v>30</v>
       </c>
@@ -13704,7 +13704,7 @@
         <v>2.193379100598857</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A133">
         <v>30</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A134">
         <v>30</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>7.2401684522156904</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A135">
         <v>30</v>
       </c>
@@ -13746,7 +13746,7 @@
         <v>2.8798616356860864</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A136">
         <v>30</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A137">
         <v>30</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>4.9186883858404551</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A138">
         <v>30</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>2.4557101522683311</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A139">
         <v>30</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A140">
         <v>30</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>6.6619319408771291</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A141">
         <v>30</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>1.1542815525474373</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A142">
         <v>30</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A143">
         <v>30</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>1.549177517412722</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A144">
         <v>30</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v>1.1568740304497094</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A145">
         <v>30</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A146">
         <v>34</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>0.99202811345468989</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A147">
         <v>34</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>2.9354500638805625</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A148">
         <v>34</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>24.403576764692222</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A149">
         <v>34</v>
       </c>
@@ -13942,7 +13942,7 @@
         <v>1.1534283003134</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A150">
         <v>34</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>1.6447935076908315</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A151">
         <v>34</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>12.04132253526303</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A152">
         <v>34</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>1.4431478418462336</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A153">
         <v>34</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>1.9697043994046894</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A154">
         <v>34</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>8.0077394567386389</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A155">
         <v>34</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>0.73189952870282604</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A156">
         <v>34</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>2.2680177969894908</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A157">
         <v>34</v>
       </c>
@@ -14054,7 +14054,7 @@
         <v>2.6709889194904322</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A158">
         <v>34</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>0.65358061447701277</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A159">
         <v>34</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>1.2592706200551125</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A160">
         <v>34</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>2.6209052397289865</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A161">
         <v>34</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>0.59701234632890421</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A162">
         <v>34</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>0.34434875232192103</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A163">
         <v>34</v>
       </c>
@@ -14139,13 +14139,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C163" xr:uid="{33A90D7F-BF7B-477D-AF5A-1703D07EDBD8}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Cactus"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C163" xr:uid="{33A90D7F-BF7B-477D-AF5A-1703D07EDBD8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:D109">
     <sortCondition ref="B2:B163"/>
   </sortState>
@@ -14154,13 +14148,795 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4ADEF0-7664-4391-A09C-F24CBB51FD97}">
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4">
+        <v>55.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7">
+        <v>237.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10">
+        <v>25.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20">
+        <v>129.44999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21">
+        <v>20.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23">
+        <v>415.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24">
+        <v>31.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26">
+        <v>81.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29">
+        <v>207.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32">
+        <v>17.93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35">
+        <v>19.239999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39">
+        <v>50.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40">
+        <v>1733.65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>186</v>
+      </c>
+      <c r="D42">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43">
+        <v>180.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46">
+        <v>176.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49">
+        <v>315.66000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>186</v>
+      </c>
+      <c r="D51">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55">
+        <v>9.9600000000000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5AAFFED5B596D4BAE4CE19A95039785" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb12f4776e238e1f586e33791f07bb77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d40adf4f-7ef1-43d3-876d-177d4150ba93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdb1f1d4a4ea75ce4d5cd3fd2a25377c" ns3:_="">
     <xsd:import namespace="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
@@ -14324,6 +15100,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -14334,22 +15116,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6078DB98-64DD-44CA-A39B-9F3CF9F2C375}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29811117-64F0-425E-BDF0-8D1838742348}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14367,6 +15133,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6078DB98-64DD-44CA-A39B-9F3CF9F2C375}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
   <ds:schemaRefs>

--- a/Gene_temp_data.xlsx
+++ b/Gene_temp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate Lab Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCA4CF-38E1-406A-9E81-C4CF2ACD4E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4A814-3FDB-4ED2-B15D-AD1BAEE84198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="5" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
   </bookViews>
@@ -11845,7 +11845,7 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/Gene_temp_data.xlsx
+++ b/Gene_temp_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate Lab Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4A814-3FDB-4ED2-B15D-AD1BAEE84198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBEEEAD-D4C1-4286-B3D2-BAFD971FF031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="5" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="1" activeTab="6" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
   </bookViews>
   <sheets>
     <sheet name="Relish" sheetId="14" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="IMD" sheetId="16" r:id="rId4"/>
     <sheet name="Gene_Data" sheetId="17" r:id="rId5"/>
     <sheet name="BtMid_GeneData" sheetId="18" r:id="rId6"/>
+    <sheet name="Gene_Data_Modified" sheetId="19" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Gene_Data!$C$1:$C$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Gene_Data_Modified!$B$1:$B$205</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">(Cactus!$F$2,Cactus!$F$5,Cactus!$F$8,Cactus!$F$11,Cactus!$F$14,Cactus!$F$17,Cactus!$F$22,Cactus!$F$25,Cactus!$F$28,Cactus!$F$31,Cactus!$F$34,Cactus!$F$37,Cactus!$F$38,Cactus!$F$41,Cactus!$F$44,Cactus!$F$47,Cactus!$F$50,Cactus!$F$54,Cactus!$F$53)</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">(Cactus!$F$3,Cactus!$F$6,Cactus!$F$9,Cactus!$F$12,Cactus!$F$15,Cactus!$F$18,Cactus!$F$21,Cactus!$F$24,Cactus!$F$27,Cactus!$F$30,Cactus!$F$33,Cactus!$F$36,Cactus!$F$39,Cactus!$F$42,Cactus!$F$45,Cactus!$F$48,Cactus!$F$51,Cactus!$F$54)</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">(Cactus!$F$4,Cactus!$F$7,Cactus!$F$10,Cactus!$F$13,Cactus!$F$16,Cactus!$F$19,Cactus!$F$20,Cactus!$F$23,Cactus!$F$26,Cactus!$F$29,Cactus!$F$32,Cactus!$F$35,Cactus!$F$40,Cactus!$F$43,Cactus!$F$46,Cactus!$F$49,Cactus!$F$52,Cactus!$F$55)</definedName>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="193">
   <si>
     <t>Well Position</t>
   </si>
@@ -646,6 +648,9 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>Real</t>
   </si>
 </sst>
 </file>
@@ -14152,7 +14157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4ADEF0-7664-4391-A09C-F24CBB51FD97}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -14936,7 +14941,3768 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831132A-6213-4CBC-8484-5B92B74FBD42}">
+  <dimension ref="A1:I217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="5.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.04296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6796875" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1.4968999999999999</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4.4233000000000002</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="8">
+        <v>51.712000000000003</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1.2423</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4.2953999999999999</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="8">
+        <v>20.6371</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.1293</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2.4594</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="8">
+        <v>44.673900000000003</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1.2533000000000001</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="8">
+        <v>13.443899999999999</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="8">
+        <v>32.5351</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2.9918</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="8">
+        <v>17.4602</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11.2843</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.3896000000000002</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8.2329000000000008</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="8">
+        <v>4.6044999999999998</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="8">
+        <v>11.7745</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="8">
+        <v>8.2761999999999993</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="8">
+        <v>6.7778999999999998</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D30" s="8">
+        <v>3.2662</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1.1875</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D32" s="8">
+        <v>27.4818</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="8">
+        <v>2.5034999999999998</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1.4032</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.84630000000000005</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="8">
+        <v>22.253799999999998</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1.9323999999999999</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2.8921000000000001</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="8">
+        <v>11.955500000000001</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.91059999999999997</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2.4357000000000002</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="8">
+        <v>10.7469</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2.6364000000000001</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2.3853</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="8">
+        <v>6.4763999999999999</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4.8316999999999997</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="8">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2.0011000000000001</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="8">
+        <v>7.8946562297804608</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="8">
+        <v>14.481835483829794</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="8">
+        <v>24.361494941271186</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="8">
+        <v>15.152738980383106</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="8">
+        <v>14.064169384750608</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A61">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61" s="8">
+        <v>16.2611850143198</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="8">
+        <v>2.104708330835265</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="8">
+        <v>3.3498875104733572</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64" s="8">
+        <v>8.3346560134937437</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65" s="8">
+        <v>6.3330896749643468</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0.82715430662305678</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="8">
+        <v>12.334761785472088</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A68">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="8">
+        <v>3.6094678070349264</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2.7918753888697498</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="8">
+        <v>5.4068671167230633</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A71">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D71" s="8">
+        <v>5.3465188279580493</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A72">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" s="8">
+        <v>3.6929674993635762</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A73">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="8">
+        <v>9.3261924731057331</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0.96213143518723743</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1.4737256300434598</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>56</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3.6382955661108567</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A77">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77" s="8">
+        <v>1.7715186435860284</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A78">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="8">
+        <v>4.2464482339861025</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D79" s="8">
+        <v>2.0083172225988659</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s">
+        <v>56</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1.0067513807074795</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A81">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="8">
+        <v>1.3860580087485403</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" s="8">
+        <v>2.6895728770310723</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2.3511568400627958</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="s">
+        <v>56</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.50608861879188216</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A85">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D85" s="8">
+        <v>1.2252027301372606</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A86">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0.85082728788912254</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A87">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="8">
+        <v>1.346984228248381</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A88">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D88" s="8">
+        <v>1.1416457045871948</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A89">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2.2179897537201985</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A90">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0.90256600508903417</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A91">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="8">
+        <v>1.2134040618405697</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.43855295526547822</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="8">
+        <v>1.1177255689618641</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="8">
+        <v>2.0667359487642689</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="8">
+        <v>2.8961306029909482</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A96">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="8">
+        <v>1.1522121853461109</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="8">
+        <v>3.8830035590545724</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A98">
+        <v>30</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D98" s="8">
+        <v>1</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A99">
+        <v>30</v>
+      </c>
+      <c r="B99" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" t="s">
+        <v>56</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A100">
+        <v>30</v>
+      </c>
+      <c r="B100" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" t="s">
+        <v>56</v>
+      </c>
+      <c r="D100" s="8">
+        <v>1</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A101">
+        <v>30</v>
+      </c>
+      <c r="B101" t="s">
+        <v>179</v>
+      </c>
+      <c r="C101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D101" s="8">
+        <v>1</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A102">
+        <v>30</v>
+      </c>
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="8">
+        <v>1</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A103">
+        <v>30</v>
+      </c>
+      <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+      <c r="D103" s="8">
+        <v>1</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A104">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1.1135763535298939</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A105">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105" s="8">
+        <v>1.2512624673819928</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A106">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106" s="8">
+        <v>1.2449164792330876</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A107">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.91655104059714321</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A108">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108" s="8">
+        <v>1.0165373350044271</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A109">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>179</v>
+      </c>
+      <c r="C109" t="s">
+        <v>56</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.98444900580502814</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A110">
+        <v>24</v>
+      </c>
+      <c r="B110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" t="s">
+        <v>162</v>
+      </c>
+      <c r="D110" s="8">
+        <v>2.1242971520355334</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A111">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
+        <v>162</v>
+      </c>
+      <c r="D111" s="8">
+        <v>4.291706844760796</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A112">
+        <v>24</v>
+      </c>
+      <c r="B112" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" t="s">
+        <v>162</v>
+      </c>
+      <c r="D112" s="8">
+        <v>4.0973316061281428</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A113">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" t="s">
+        <v>162</v>
+      </c>
+      <c r="D113" s="8">
+        <v>1.4003082825932121</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A114">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+      <c r="D114" s="8">
+        <v>4.2822781418585629</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A115">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="8">
+        <v>24.879857304108231</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A116">
+        <v>24</v>
+      </c>
+      <c r="B116" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" t="s">
+        <v>162</v>
+      </c>
+      <c r="D116" s="8">
+        <v>2.1361512628337644</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A117">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D117" s="8">
+        <v>4.4234725395964745</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A118">
+        <v>24</v>
+      </c>
+      <c r="B118" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" t="s">
+        <v>162</v>
+      </c>
+      <c r="D118" s="8">
+        <v>24.233747546798313</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A119">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="8">
+        <v>2.4320009352248682</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A120">
+        <v>24</v>
+      </c>
+      <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="8">
+        <v>3.2087767766407076</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A121">
+        <v>24</v>
+      </c>
+      <c r="B121" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="8">
+        <v>11.923025326389997</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A122">
+        <v>24</v>
+      </c>
+      <c r="B122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" t="s">
+        <v>162</v>
+      </c>
+      <c r="D122" s="8">
+        <v>4.0303255151733959</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A123">
+        <v>24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>162</v>
+      </c>
+      <c r="D123" s="8">
+        <v>5.4793397531315007</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="8">
+        <v>3.8660381950190703</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>179</v>
+      </c>
+      <c r="C125" t="s">
+        <v>162</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0.78798330374844805</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A126">
+        <v>24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>180</v>
+      </c>
+      <c r="C126" t="s">
+        <v>162</v>
+      </c>
+      <c r="D126" s="8">
+        <v>4.1156288923036524</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="8">
+        <v>17.584575159373117</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A128">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" t="s">
+        <v>162</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.62926575287712383</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A129">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>162</v>
+      </c>
+      <c r="D129" s="8">
+        <v>1.4813329696016226</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A130">
+        <v>30</v>
+      </c>
+      <c r="B130" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" t="s">
+        <v>162</v>
+      </c>
+      <c r="D130" s="8">
+        <v>1</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A131">
+        <v>30</v>
+      </c>
+      <c r="B131" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" t="s">
+        <v>162</v>
+      </c>
+      <c r="D131" s="8">
+        <v>8.4712330715386397</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A132">
+        <v>30</v>
+      </c>
+      <c r="B132" t="s">
+        <v>180</v>
+      </c>
+      <c r="C132" t="s">
+        <v>162</v>
+      </c>
+      <c r="D132" s="8">
+        <v>2.193379100598857</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>162</v>
+      </c>
+      <c r="D133" s="8">
+        <v>1</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A134">
+        <v>30</v>
+      </c>
+      <c r="B134" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" t="s">
+        <v>162</v>
+      </c>
+      <c r="D134" s="8">
+        <v>7.2401684522156904</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A135">
+        <v>30</v>
+      </c>
+      <c r="B135" t="s">
+        <v>180</v>
+      </c>
+      <c r="C135" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" s="8">
+        <v>2.8798616356860864</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A136">
+        <v>30</v>
+      </c>
+      <c r="B136" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" s="8">
+        <v>1</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A137">
+        <v>30</v>
+      </c>
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" t="s">
+        <v>162</v>
+      </c>
+      <c r="D137" s="8">
+        <v>4.9186883858404551</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A138">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" t="s">
+        <v>162</v>
+      </c>
+      <c r="D138" s="8">
+        <v>2.4557101522683311</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A139">
+        <v>30</v>
+      </c>
+      <c r="B139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C139" t="s">
+        <v>162</v>
+      </c>
+      <c r="D139" s="8">
+        <v>1</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A140">
+        <v>30</v>
+      </c>
+      <c r="B140" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="8">
+        <v>6.6619319408771291</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A141">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" t="s">
+        <v>162</v>
+      </c>
+      <c r="D141" s="8">
+        <v>1.1542815525474373</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A142">
+        <v>30</v>
+      </c>
+      <c r="B142" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" t="s">
+        <v>162</v>
+      </c>
+      <c r="D142" s="8">
+        <v>1</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A143">
+        <v>30</v>
+      </c>
+      <c r="B143" t="s">
+        <v>181</v>
+      </c>
+      <c r="C143" t="s">
+        <v>162</v>
+      </c>
+      <c r="D143" s="8">
+        <v>1.549177517412722</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A144">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C144" t="s">
+        <v>162</v>
+      </c>
+      <c r="D144" s="8">
+        <v>1.1568740304497094</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A145">
+        <v>30</v>
+      </c>
+      <c r="B145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C145" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="8">
+        <v>1</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A146">
+        <v>34</v>
+      </c>
+      <c r="B146" t="s">
+        <v>179</v>
+      </c>
+      <c r="C146" t="s">
+        <v>162</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0.99202811345468989</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A147">
+        <v>34</v>
+      </c>
+      <c r="B147" t="s">
+        <v>180</v>
+      </c>
+      <c r="C147" t="s">
+        <v>162</v>
+      </c>
+      <c r="D147" s="8">
+        <v>2.9354500638805625</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A148">
+        <v>34</v>
+      </c>
+      <c r="B148" t="s">
+        <v>181</v>
+      </c>
+      <c r="C148" t="s">
+        <v>162</v>
+      </c>
+      <c r="D148" s="8">
+        <v>24.403576764692222</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A149">
+        <v>34</v>
+      </c>
+      <c r="B149" t="s">
+        <v>179</v>
+      </c>
+      <c r="C149" t="s">
+        <v>162</v>
+      </c>
+      <c r="D149" s="8">
+        <v>1.1534283003134</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A150">
+        <v>34</v>
+      </c>
+      <c r="B150" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" t="s">
+        <v>162</v>
+      </c>
+      <c r="D150" s="8">
+        <v>1.6447935076908315</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A151">
+        <v>34</v>
+      </c>
+      <c r="B151" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" s="8">
+        <v>12.04132253526303</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A152">
+        <v>34</v>
+      </c>
+      <c r="B152" t="s">
+        <v>179</v>
+      </c>
+      <c r="C152" t="s">
+        <v>162</v>
+      </c>
+      <c r="D152" s="8">
+        <v>1.4431478418462336</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A153">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" t="s">
+        <v>162</v>
+      </c>
+      <c r="D153" s="8">
+        <v>1.9697043994046894</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A154">
+        <v>34</v>
+      </c>
+      <c r="B154" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" t="s">
+        <v>162</v>
+      </c>
+      <c r="D154" s="8">
+        <v>8.0077394567386389</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A155">
+        <v>34</v>
+      </c>
+      <c r="B155" t="s">
+        <v>179</v>
+      </c>
+      <c r="C155" t="s">
+        <v>162</v>
+      </c>
+      <c r="D155" s="8">
+        <v>0.73189952870282604</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A156">
+        <v>34</v>
+      </c>
+      <c r="B156" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D156" s="8">
+        <v>2.2680177969894908</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A157">
+        <v>34</v>
+      </c>
+      <c r="B157" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" t="s">
+        <v>162</v>
+      </c>
+      <c r="D157" s="8">
+        <v>2.6709889194904322</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A158">
+        <v>34</v>
+      </c>
+      <c r="B158" t="s">
+        <v>179</v>
+      </c>
+      <c r="C158" t="s">
+        <v>162</v>
+      </c>
+      <c r="D158" s="8">
+        <v>0.65358061447701277</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A159">
+        <v>34</v>
+      </c>
+      <c r="B159" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159" s="8">
+        <v>1.2592706200551125</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A160">
+        <v>34</v>
+      </c>
+      <c r="B160" t="s">
+        <v>181</v>
+      </c>
+      <c r="C160" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160" s="8">
+        <v>2.6209052397289865</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A161">
+        <v>34</v>
+      </c>
+      <c r="B161" t="s">
+        <v>179</v>
+      </c>
+      <c r="C161" t="s">
+        <v>162</v>
+      </c>
+      <c r="D161" s="8">
+        <v>0.59701234632890421</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A162">
+        <v>34</v>
+      </c>
+      <c r="B162" t="s">
+        <v>180</v>
+      </c>
+      <c r="C162" t="s">
+        <v>162</v>
+      </c>
+      <c r="D162" s="8">
+        <v>0.34434875232192103</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A163">
+        <v>34</v>
+      </c>
+      <c r="B163" t="s">
+        <v>181</v>
+      </c>
+      <c r="C163" t="s">
+        <v>162</v>
+      </c>
+      <c r="D163" s="8">
+        <v>1.9804227103587813</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A164">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" t="s">
+        <v>190</v>
+      </c>
+      <c r="D164" s="8">
+        <v>11.2843</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A165">
+        <v>20</v>
+      </c>
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" t="s">
+        <v>190</v>
+      </c>
+      <c r="D165" s="8">
+        <v>2.3896000000000002</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A166">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" t="s">
+        <v>190</v>
+      </c>
+      <c r="D166" s="8">
+        <v>0.75360000000000005</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A167">
+        <v>20</v>
+      </c>
+      <c r="B167" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" t="s">
+        <v>190</v>
+      </c>
+      <c r="D167" s="8">
+        <v>8.2329000000000008</v>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A168">
+        <v>20</v>
+      </c>
+      <c r="B168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C168" t="s">
+        <v>190</v>
+      </c>
+      <c r="D168" s="8">
+        <v>4.6044999999999998</v>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A169">
+        <v>20</v>
+      </c>
+      <c r="B169" t="s">
+        <v>179</v>
+      </c>
+      <c r="C169" t="s">
+        <v>190</v>
+      </c>
+      <c r="D169" s="8">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A170">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>181</v>
+      </c>
+      <c r="C170" t="s">
+        <v>190</v>
+      </c>
+      <c r="D170" s="8">
+        <v>11.7745</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A171">
+        <v>20</v>
+      </c>
+      <c r="B171" t="s">
+        <v>180</v>
+      </c>
+      <c r="C171" t="s">
+        <v>190</v>
+      </c>
+      <c r="D171" s="8">
+        <v>8.2761999999999993</v>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A172">
+        <v>20</v>
+      </c>
+      <c r="B172" t="s">
+        <v>179</v>
+      </c>
+      <c r="C172" t="s">
+        <v>190</v>
+      </c>
+      <c r="D172" s="8">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A173">
+        <v>20</v>
+      </c>
+      <c r="B173" t="s">
+        <v>181</v>
+      </c>
+      <c r="C173" t="s">
+        <v>190</v>
+      </c>
+      <c r="D173" s="8">
+        <v>6.7778999999999998</v>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A174">
+        <v>20</v>
+      </c>
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+      <c r="C174" t="s">
+        <v>190</v>
+      </c>
+      <c r="D174" s="8">
+        <v>3.2662</v>
+      </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A175">
+        <v>20</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>190</v>
+      </c>
+      <c r="D175" s="8">
+        <v>1.1875</v>
+      </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A176">
+        <v>20</v>
+      </c>
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176" t="s">
+        <v>190</v>
+      </c>
+      <c r="D176" s="8">
+        <v>27.4818</v>
+      </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A177">
+        <v>20</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" t="s">
+        <v>190</v>
+      </c>
+      <c r="D177" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" t="s">
+        <v>190</v>
+      </c>
+      <c r="D178" s="8">
+        <v>2.5034999999999998</v>
+      </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A179">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" t="s">
+        <v>190</v>
+      </c>
+      <c r="D179" s="8">
+        <v>0.62280000000000002</v>
+      </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A180">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" t="s">
+        <v>190</v>
+      </c>
+      <c r="D180" s="8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>190</v>
+      </c>
+      <c r="D181" s="8">
+        <v>1</v>
+      </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A182">
+        <v>20</v>
+      </c>
+      <c r="B182" t="s">
+        <v>181</v>
+      </c>
+      <c r="C182" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" s="8">
+        <v>2.104708330835265</v>
+      </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A183">
+        <v>20</v>
+      </c>
+      <c r="B183" t="s">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>56</v>
+      </c>
+      <c r="D183" s="8">
+        <v>3.3498875104733572</v>
+      </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A184">
+        <v>20</v>
+      </c>
+      <c r="B184" t="s">
+        <v>181</v>
+      </c>
+      <c r="C184" t="s">
+        <v>56</v>
+      </c>
+      <c r="D184" s="8">
+        <v>8.3346560134937437</v>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A185">
+        <v>20</v>
+      </c>
+      <c r="B185" t="s">
+        <v>181</v>
+      </c>
+      <c r="C185" t="s">
+        <v>56</v>
+      </c>
+      <c r="D185" s="8">
+        <v>6.3330896749643468</v>
+      </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A186">
+        <v>20</v>
+      </c>
+      <c r="B186" t="s">
+        <v>181</v>
+      </c>
+      <c r="C186" t="s">
+        <v>56</v>
+      </c>
+      <c r="D186" s="8">
+        <v>0.82715430662305678</v>
+      </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A187">
+        <v>20</v>
+      </c>
+      <c r="B187" t="s">
+        <v>181</v>
+      </c>
+      <c r="C187" t="s">
+        <v>56</v>
+      </c>
+      <c r="D187" s="8">
+        <v>12.334761785472088</v>
+      </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A188">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>181</v>
+      </c>
+      <c r="C188" t="s">
+        <v>162</v>
+      </c>
+      <c r="D188" s="8">
+        <v>0.62926575287712383</v>
+      </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="I188" s="8"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A189">
+        <v>20</v>
+      </c>
+      <c r="B189" t="s">
+        <v>180</v>
+      </c>
+      <c r="C189" t="s">
+        <v>162</v>
+      </c>
+      <c r="D189" s="8">
+        <v>1.4813329696016226</v>
+      </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="I189" s="8"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A190">
+        <v>20</v>
+      </c>
+      <c r="B190" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" t="s">
+        <v>162</v>
+      </c>
+      <c r="D190" s="8">
+        <v>1</v>
+      </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="I190" s="8"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A191">
+        <v>20</v>
+      </c>
+      <c r="B191" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" t="s">
+        <v>162</v>
+      </c>
+      <c r="D191" s="8">
+        <v>8.4712330715386397</v>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="I191" s="8"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A192">
+        <v>20</v>
+      </c>
+      <c r="B192" t="s">
+        <v>180</v>
+      </c>
+      <c r="C192" t="s">
+        <v>162</v>
+      </c>
+      <c r="D192" s="8">
+        <v>2.193379100598857</v>
+      </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+      <c r="I192" s="8"/>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A193">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>179</v>
+      </c>
+      <c r="C193" t="s">
+        <v>162</v>
+      </c>
+      <c r="D193" s="8">
+        <v>1</v>
+      </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="I193" s="8"/>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A194">
+        <v>20</v>
+      </c>
+      <c r="B194" t="s">
+        <v>181</v>
+      </c>
+      <c r="C194" t="s">
+        <v>162</v>
+      </c>
+      <c r="D194" s="8">
+        <v>7.2401684522156904</v>
+      </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+      <c r="I194" s="8"/>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A195">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>180</v>
+      </c>
+      <c r="C195" t="s">
+        <v>162</v>
+      </c>
+      <c r="D195" s="8">
+        <v>2.8798616356860864</v>
+      </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+      <c r="I195" s="8"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A196">
+        <v>20</v>
+      </c>
+      <c r="B196" t="s">
+        <v>179</v>
+      </c>
+      <c r="C196" t="s">
+        <v>162</v>
+      </c>
+      <c r="D196" s="8">
+        <v>1</v>
+      </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+      <c r="I196" s="8"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A197">
+        <v>20</v>
+      </c>
+      <c r="B197" t="s">
+        <v>181</v>
+      </c>
+      <c r="C197" t="s">
+        <v>162</v>
+      </c>
+      <c r="D197" s="8">
+        <v>4.9186883858404551</v>
+      </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="I197" s="8"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A198">
+        <v>20</v>
+      </c>
+      <c r="B198" t="s">
+        <v>180</v>
+      </c>
+      <c r="C198" t="s">
+        <v>162</v>
+      </c>
+      <c r="D198" s="8">
+        <v>2.4557101522683311</v>
+      </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+      <c r="I198" s="8"/>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A199">
+        <v>20</v>
+      </c>
+      <c r="B199" t="s">
+        <v>179</v>
+      </c>
+      <c r="C199" t="s">
+        <v>162</v>
+      </c>
+      <c r="D199" s="8">
+        <v>1</v>
+      </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="I199" s="8"/>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A200">
+        <v>20</v>
+      </c>
+      <c r="B200" t="s">
+        <v>181</v>
+      </c>
+      <c r="C200" t="s">
+        <v>162</v>
+      </c>
+      <c r="D200" s="8">
+        <v>6.6619319408771291</v>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="I200" s="8"/>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A201">
+        <v>20</v>
+      </c>
+      <c r="B201" t="s">
+        <v>180</v>
+      </c>
+      <c r="C201" t="s">
+        <v>162</v>
+      </c>
+      <c r="D201" s="8">
+        <v>1.1542815525474373</v>
+      </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="I201" s="8"/>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A202">
+        <v>20</v>
+      </c>
+      <c r="B202" t="s">
+        <v>179</v>
+      </c>
+      <c r="C202" t="s">
+        <v>162</v>
+      </c>
+      <c r="D202" s="8">
+        <v>1</v>
+      </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+      <c r="I202" s="8"/>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A203">
+        <v>20</v>
+      </c>
+      <c r="B203" t="s">
+        <v>181</v>
+      </c>
+      <c r="C203" t="s">
+        <v>162</v>
+      </c>
+      <c r="D203" s="8">
+        <v>1.549177517412722</v>
+      </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+      <c r="I203" s="8"/>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A204">
+        <v>20</v>
+      </c>
+      <c r="B204" t="s">
+        <v>180</v>
+      </c>
+      <c r="C204" t="s">
+        <v>162</v>
+      </c>
+      <c r="D204" s="8">
+        <v>1.1568740304497094</v>
+      </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+      <c r="I204" s="8"/>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A205">
+        <v>20</v>
+      </c>
+      <c r="B205" t="s">
+        <v>179</v>
+      </c>
+      <c r="C205" t="s">
+        <v>162</v>
+      </c>
+      <c r="D205" s="8">
+        <v>1</v>
+      </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A206">
+        <v>20</v>
+      </c>
+      <c r="B206" t="s">
+        <v>180</v>
+      </c>
+      <c r="C206" t="s">
+        <v>56</v>
+      </c>
+      <c r="D206" s="8">
+        <v>1.0067513807074795</v>
+      </c>
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A207">
+        <v>20</v>
+      </c>
+      <c r="B207" t="s">
+        <v>180</v>
+      </c>
+      <c r="C207" t="s">
+        <v>56</v>
+      </c>
+      <c r="D207" s="8">
+        <v>1.3860580087485403</v>
+      </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A208">
+        <v>20</v>
+      </c>
+      <c r="B208" t="s">
+        <v>180</v>
+      </c>
+      <c r="C208" t="s">
+        <v>56</v>
+      </c>
+      <c r="D208" s="8">
+        <v>2.6895728770310723</v>
+      </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A209">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s">
+        <v>180</v>
+      </c>
+      <c r="C209" t="s">
+        <v>56</v>
+      </c>
+      <c r="D209" s="8">
+        <v>2.3511568400627958</v>
+      </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A210">
+        <v>20</v>
+      </c>
+      <c r="B210" t="s">
+        <v>180</v>
+      </c>
+      <c r="C210" t="s">
+        <v>56</v>
+      </c>
+      <c r="D210" s="8">
+        <v>0.50608861879188216</v>
+      </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A211">
+        <v>20</v>
+      </c>
+      <c r="B211" t="s">
+        <v>180</v>
+      </c>
+      <c r="C211" t="s">
+        <v>56</v>
+      </c>
+      <c r="D211" s="8">
+        <v>1.2252027301372606</v>
+      </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A212">
+        <v>20</v>
+      </c>
+      <c r="B212" t="s">
+        <v>179</v>
+      </c>
+      <c r="C212" t="s">
+        <v>56</v>
+      </c>
+      <c r="D212" s="8">
+        <v>1</v>
+      </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A213">
+        <v>20</v>
+      </c>
+      <c r="B213" t="s">
+        <v>179</v>
+      </c>
+      <c r="C213" t="s">
+        <v>56</v>
+      </c>
+      <c r="D213" s="8">
+        <v>1</v>
+      </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A214">
+        <v>20</v>
+      </c>
+      <c r="B214" t="s">
+        <v>179</v>
+      </c>
+      <c r="C214" t="s">
+        <v>56</v>
+      </c>
+      <c r="D214" s="8">
+        <v>1</v>
+      </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A215">
+        <v>20</v>
+      </c>
+      <c r="B215" t="s">
+        <v>179</v>
+      </c>
+      <c r="C215" t="s">
+        <v>56</v>
+      </c>
+      <c r="D215" s="8">
+        <v>1</v>
+      </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A216">
+        <v>20</v>
+      </c>
+      <c r="B216" t="s">
+        <v>179</v>
+      </c>
+      <c r="C216" t="s">
+        <v>56</v>
+      </c>
+      <c r="D216" s="8">
+        <v>1</v>
+      </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A217">
+        <v>20</v>
+      </c>
+      <c r="B217" t="s">
+        <v>179</v>
+      </c>
+      <c r="C217" t="s">
+        <v>56</v>
+      </c>
+      <c r="D217" s="8">
+        <v>1</v>
+      </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B205" xr:uid="{728D1403-E502-4946-B7CC-5E0361800552}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5AAFFED5B596D4BAE4CE19A95039785" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb12f4776e238e1f586e33791f07bb77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d40adf4f-7ef1-43d3-876d-177d4150ba93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdb1f1d4a4ea75ce4d5cd3fd2a25377c" ns3:_="">
     <xsd:import namespace="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
@@ -15100,35 +18866,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29811117-64F0-425E-BDF0-8D1838742348}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15150,9 +18891,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29811117-64F0-425E-BDF0-8D1838742348}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gene_temp_data.xlsx
+++ b/Gene_temp_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate Lab Rotation\Tate_Rotation_Temp_Immunity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate_Lab_Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBEEEAD-D4C1-4286-B3D2-BAFD971FF031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF5291-51AF-4196-AEC8-F9835E720318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" firstSheet="1" activeTab="6" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="679" firstSheet="2" activeTab="8" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
   </bookViews>
   <sheets>
     <sheet name="Relish" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Gene_Data" sheetId="17" r:id="rId5"/>
     <sheet name="BtMid_GeneData" sheetId="18" r:id="rId6"/>
     <sheet name="Gene_Data_Modified" sheetId="19" r:id="rId7"/>
+    <sheet name="Rates" sheetId="21" r:id="rId8"/>
+    <sheet name="Rate_Data" sheetId="22" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Gene_Data!$C$1:$C$163</definedName>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="199">
   <si>
     <t>Well Position</t>
   </si>
@@ -652,6 +654,24 @@
   <si>
     <t>Real</t>
   </si>
+  <si>
+    <t>ddCT2 HK-N</t>
+  </si>
+  <si>
+    <t>ddCT2 BT-N</t>
+  </si>
+  <si>
+    <t>Constitutive_Rate</t>
+  </si>
+  <si>
+    <t>Induced_Rate</t>
+  </si>
+  <si>
+    <t>Rate_Type</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
 </sst>
 </file>
 
@@ -663,7 +683,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="#,##0.00000000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,6 +704,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -712,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -722,6 +759,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2966,13 +3006,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>280988</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>166688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>564355</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
@@ -3383,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABB9B5-9451-4E98-A30F-1DC948C739E5}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K55"/>
+    <sheetView topLeftCell="G30" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -3402,12 +3442,13 @@
     <col min="9" max="9" width="17.6796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.2265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.54296875" customWidth="1"/>
-    <col min="13" max="13" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.6796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="16.2265625" customWidth="1"/>
+    <col min="18" max="18" width="15.54296875" customWidth="1"/>
+    <col min="19" max="19" width="39.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>92</v>
       </c>
@@ -3442,16 +3483,31 @@
         <v>168</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3485,19 +3541,41 @@
       <c r="K2" s="5">
         <v>2.1242971520355334</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="5">
+        <f>K3-K2</f>
+        <v>2.1674096927252626</v>
+      </c>
+      <c r="O2" s="5">
+        <f>K4-K2</f>
+        <v>1.9730344540926095</v>
+      </c>
+      <c r="P2" s="5">
+        <f>N2/4</f>
+        <v>0.54185242318131566</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>O2/4</f>
+        <v>0.49325861352315237</v>
+      </c>
+      <c r="R2" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="5">
+      <c r="S2" s="5">
         <f>AVERAGE(K2,K5,K8,K11,K14,K17)</f>
         <v>2.1518444086015371</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <f>STDEV(K2,K5,K8,K11,K14,K17)</f>
         <v>1.0984632661452245</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3531,19 +3609,41 @@
       <c r="K3" s="5">
         <v>4.291706844760796</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="5">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="5">
+        <f>K6-K5</f>
+        <v>2.8819698592653511</v>
+      </c>
+      <c r="O3" s="5">
+        <f>K7-K5</f>
+        <v>23.47954902151502</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P7" si="0">N3/4</f>
+        <v>0.72049246481633777</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q7" si="1">O3/4</f>
+        <v>5.8698872553787549</v>
+      </c>
+      <c r="R3" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="5">
+      <c r="S3" s="5">
         <f>AVERAGE(K3,K6,K9,K12,K15,K18)</f>
         <v>4.3002004913819496</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <f>STDEV(K3,K6,K9,K12,K15,K18)</f>
         <v>0.72542830788459434</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3577,19 +3677,41 @@
       <c r="K4" s="5">
         <v>4.0973316061281428</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="5">
+        <v>24</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="5">
+        <f>K9-K8</f>
+        <v>2.28732127676271</v>
+      </c>
+      <c r="O4" s="5">
+        <f>K10-K8</f>
+        <v>22.097596283964549</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57183031919067751</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="1"/>
+        <v>5.5243990709911373</v>
+      </c>
+      <c r="R4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="5">
+      <c r="S4" s="5">
         <f>AVERAGE(K4,K7,K10,K13,K16,K19)</f>
         <v>14.430762522969481</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <f>STDEV(K4,K7,K10,K13,K16,K19)</f>
         <v>9.3798781628974304</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3623,8 +3745,30 @@
       <c r="K5" s="5">
         <v>1.4003082825932121</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L5" s="5">
+        <v>24</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="5">
+        <f>K12-K11</f>
+        <v>0.77677584141583944</v>
+      </c>
+      <c r="O5" s="5">
+        <f>K13-K11</f>
+        <v>9.4910243911651282</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>0.19419396035395986</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="1"/>
+        <v>2.372756097791282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3658,8 +3802,30 @@
       <c r="K6" s="5">
         <v>4.2822781418585629</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L6" s="5">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="5">
+        <f>K15-K14</f>
+        <v>1.4490142379581048</v>
+      </c>
+      <c r="O6" s="5">
+        <f>K16-K14</f>
+        <v>-0.16428732015432557</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.3622535594895262</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="1"/>
+        <v>-4.1071830038581392E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>11</v>
       </c>
@@ -3693,8 +3859,30 @@
       <c r="K7" s="5">
         <v>24.879857304108231</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L7" s="5">
+        <v>24</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="5">
+        <f>K18-K17</f>
+        <v>3.3276455885552041</v>
+      </c>
+      <c r="O7" s="5">
+        <f>K19-K17</f>
+        <v>16.796591855624669</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83191139713880102</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="1"/>
+        <v>4.1991479639061673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>14</v>
       </c>
@@ -3728,8 +3916,14 @@
       <c r="K8" s="5">
         <v>2.1361512628337644</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>18</v>
       </c>
@@ -3763,8 +3957,14 @@
       <c r="K9" s="5">
         <v>4.4234725395964745</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>23</v>
       </c>
@@ -3798,8 +3998,14 @@
       <c r="K10" s="5">
         <v>24.233747546798313</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>28</v>
       </c>
@@ -3833,8 +4039,14 @@
       <c r="K11" s="5">
         <v>2.4320009352248682</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>33</v>
       </c>
@@ -3868,8 +4080,14 @@
       <c r="K12" s="5">
         <v>3.2087767766407076</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>38</v>
       </c>
@@ -3903,8 +4121,14 @@
       <c r="K13" s="5">
         <v>11.923025326389997</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>43</v>
       </c>
@@ -3938,8 +4162,14 @@
       <c r="K14" s="5">
         <v>4.0303255151733959</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>45</v>
       </c>
@@ -3973,8 +4203,14 @@
       <c r="K15" s="5">
         <v>5.4793397531315007</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>47</v>
       </c>
@@ -4008,8 +4244,14 @@
       <c r="K16" s="5">
         <v>3.8660381950190703</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>50</v>
       </c>
@@ -4043,8 +4285,14 @@
       <c r="K17" s="5">
         <v>0.78798330374844805</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A18" s="2">
         <v>54</v>
       </c>
@@ -4078,8 +4326,14 @@
       <c r="K18" s="5">
         <v>4.1156288923036524</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>57</v>
       </c>
@@ -4113,8 +4367,14 @@
       <c r="K19" s="5">
         <v>17.584575159373117</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>61</v>
       </c>
@@ -4148,19 +4408,41 @@
       <c r="K20" s="5">
         <v>0.62926575287712383</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="5">
+        <v>30</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="5">
+        <f>K21-K22</f>
+        <v>0.48133296960162264</v>
+      </c>
+      <c r="O20" s="5">
+        <f>K20-K22</f>
+        <v>-0.37073424712287617</v>
+      </c>
+      <c r="P20" s="5">
+        <f>N20/4</f>
+        <v>0.12033324240040566</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>O20/4</f>
+        <v>-9.2683561780719043E-2</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="5">
+      <c r="S20" s="5">
         <f>AVERAGE(K20,K23,K26,K29,K32,K35)</f>
         <v>4.9117441867936265</v>
       </c>
-      <c r="N20">
+      <c r="T20">
         <f>STDEV(K20,K23,K26,K29,K32,K35)</f>
         <v>3.1875132068703711</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>63</v>
       </c>
@@ -4194,19 +4476,41 @@
       <c r="K21" s="5">
         <v>1.4813329696016226</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="5">
+        <v>30</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N21" s="5">
+        <f>K24-K25</f>
+        <v>1.193379100598857</v>
+      </c>
+      <c r="O21" s="5">
+        <f>K23-K25</f>
+        <v>7.4712330715386397</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" ref="P21:P25" si="2">N21/4</f>
+        <v>0.29834477514971425</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" ref="Q21:Q25" si="3">O21/4</f>
+        <v>1.8678082678846599</v>
+      </c>
+      <c r="R21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="5">
+      <c r="S21" s="5">
         <f>AVERAGE(K21,K24,K27,K30,K33,K36)</f>
         <v>1.8869065735253405</v>
       </c>
-      <c r="N21">
+      <c r="T21">
         <f>STDEV(K21,K24,K27,K30,K33,K36)</f>
         <v>0.72630566017680709</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>65</v>
       </c>
@@ -4240,19 +4544,41 @@
       <c r="K22" s="5">
         <v>1</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="5">
+        <v>30</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N22" s="5">
+        <f>K27-K28</f>
+        <v>1.8798616356860864</v>
+      </c>
+      <c r="O22" s="5">
+        <f>K26-K28</f>
+        <v>6.2401684522156904</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.46996540892152161</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5600421130539226</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M22" s="5">
+      <c r="S22" s="5">
         <f>AVERAGE(K22,K25,K28,K31,K34,K37)</f>
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="T22">
         <f>STDEV(K22,K25,K28,K31,K34,K37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>68</v>
       </c>
@@ -4286,9 +4612,31 @@
       <c r="K23" s="5">
         <v>8.4712330715386397</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L23" s="5">
+        <v>30</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="5">
+        <f>K30-K31</f>
+        <v>1.4557101522683311</v>
+      </c>
+      <c r="O23" s="5">
+        <f>K29-K31</f>
+        <v>3.9186883858404551</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36392753806708278</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="3"/>
+        <v>0.97967209646011377</v>
+      </c>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>69</v>
       </c>
@@ -4322,9 +4670,31 @@
       <c r="K24" s="5">
         <v>2.193379100598857</v>
       </c>
-      <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L24" s="5">
+        <v>30</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N24" s="5">
+        <f>K33-K34</f>
+        <v>0.15428155254743725</v>
+      </c>
+      <c r="O24" s="5">
+        <f>K32-K34</f>
+        <v>5.6619319408771291</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="2"/>
+        <v>3.8570388136859313E-2</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4154829852192823</v>
+      </c>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>72</v>
       </c>
@@ -4358,9 +4728,31 @@
       <c r="K25" s="5">
         <v>1</v>
       </c>
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L25" s="5">
+        <v>30</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N25" s="5">
+        <f>K36-K37</f>
+        <v>0.15687403044970938</v>
+      </c>
+      <c r="O25" s="5">
+        <f>K35-K37</f>
+        <v>0.54917751741272203</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="2"/>
+        <v>3.9218507612427345E-2</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.13729437935318051</v>
+      </c>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>75</v>
       </c>
@@ -4394,11 +4786,17 @@
       <c r="K26" s="5">
         <v>7.2401684522156904</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>79</v>
       </c>
@@ -4433,8 +4831,14 @@
         <v>2.8798616356860864</v>
       </c>
       <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>83</v>
       </c>
@@ -4469,8 +4873,14 @@
         <v>1</v>
       </c>
       <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>89</v>
       </c>
@@ -4505,8 +4915,14 @@
         <v>4.9186883858404551</v>
       </c>
       <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>93</v>
       </c>
@@ -4541,8 +4957,14 @@
         <v>2.4557101522683311</v>
       </c>
       <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>98</v>
       </c>
@@ -4577,8 +4999,14 @@
         <v>1</v>
       </c>
       <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>104</v>
       </c>
@@ -4613,8 +5041,14 @@
         <v>6.6619319408771291</v>
       </c>
       <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>106</v>
       </c>
@@ -4649,8 +5083,14 @@
         <v>1.1542815525474373</v>
       </c>
       <c r="L33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>108</v>
       </c>
@@ -4685,8 +5125,14 @@
         <v>1</v>
       </c>
       <c r="L34" s="5"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>111</v>
       </c>
@@ -4721,8 +5167,14 @@
         <v>1.549177517412722</v>
       </c>
       <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>114</v>
       </c>
@@ -4757,8 +5209,14 @@
         <v>1.1568740304497094</v>
       </c>
       <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>118</v>
       </c>
@@ -4793,8 +5251,14 @@
         <v>1</v>
       </c>
       <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>122</v>
       </c>
@@ -4828,19 +5292,41 @@
       <c r="K38" s="5">
         <v>0.99202811345468989</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="5">
+        <v>34</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" s="5">
+        <f>K39-K38</f>
+        <v>1.9434219504258725</v>
+      </c>
+      <c r="O38" s="5">
+        <f>K40-K38</f>
+        <v>23.411548651237531</v>
+      </c>
+      <c r="P38" s="5">
+        <f>N38/4</f>
+        <v>0.48585548760646813</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>O38/4</f>
+        <v>5.8528871628093828</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="M38" s="5">
+      <c r="S38" s="5">
         <f>AVERAGE(K38,K41,K44,K47,K50,K53)</f>
         <v>0.92851612418717788</v>
       </c>
-      <c r="N38">
+      <c r="T38">
         <f>STDEV(K38,K41,K44,K47,K50,K53)</f>
         <v>0.32972941616574414</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>123</v>
       </c>
@@ -4874,19 +5360,41 @@
       <c r="K39" s="5">
         <v>2.9354500638805625</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="5">
+        <v>34</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N39" s="5">
+        <f>K42-K41</f>
+        <v>0.4913652073774315</v>
+      </c>
+      <c r="O39" s="5">
+        <f>K43-K41</f>
+        <v>10.887894234949629</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" ref="P39:P43" si="4">N39/4</f>
+        <v>0.12284130184435788</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" ref="Q39:Q43" si="5">O39/4</f>
+        <v>2.7219735587374072</v>
+      </c>
+      <c r="R39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M39" s="5">
+      <c r="S39" s="5">
         <f>AVERAGE(K39,K42,K45,K48,K51,K54)</f>
         <v>1.7369308567237678</v>
       </c>
-      <c r="N39">
+      <c r="T39">
         <f>STDEV(K39,K42,K45,K48,K51,K54)</f>
         <v>0.88866401530592443</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>125</v>
       </c>
@@ -4920,19 +5428,41 @@
       <c r="K40" s="5">
         <v>24.403576764692222</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="5">
+        <v>34</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N40" s="5">
+        <f>K45-K44</f>
+        <v>0.52655655755845587</v>
+      </c>
+      <c r="O40" s="5">
+        <f>K46-K44</f>
+        <v>6.5645916148924055</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13163913938961397</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="5"/>
+        <v>1.6411479037231014</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="M40" s="5">
+      <c r="S40" s="5">
         <f>AVERAGE(K40,K43,K46,K49,K52,K55)</f>
         <v>8.6208259377120147</v>
       </c>
-      <c r="N40">
+      <c r="T40">
         <f>STDEV(K40,K43,K46,K49,K52,K55)</f>
         <v>8.6794638039556666</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>127</v>
       </c>
@@ -4966,9 +5496,31 @@
       <c r="K41" s="5">
         <v>1.1534283003134</v>
       </c>
-      <c r="L41" s="5"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L41" s="5">
+        <v>34</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N41" s="5">
+        <f>K48-K47</f>
+        <v>1.5361182682866648</v>
+      </c>
+      <c r="O41" s="5">
+        <f>K49-K47</f>
+        <v>1.9390893907876061</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="4"/>
+        <v>0.38402956707166619</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="5"/>
+        <v>0.48477234769690153</v>
+      </c>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>129</v>
       </c>
@@ -5002,9 +5554,31 @@
       <c r="K42" s="5">
         <v>1.6447935076908315</v>
       </c>
-      <c r="L42" s="5"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L42" s="5">
+        <v>34</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N42" s="5">
+        <f>K51-K50</f>
+        <v>0.60569000557809971</v>
+      </c>
+      <c r="O42" s="5">
+        <f>K52-K50</f>
+        <v>1.9673246252519738</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15142250139452493</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.49183115631299346</v>
+      </c>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>131</v>
       </c>
@@ -5038,9 +5612,31 @@
       <c r="K43" s="5">
         <v>12.04132253526303</v>
       </c>
-      <c r="L43" s="5"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="L43" s="5">
+        <v>34</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N43" s="5">
+        <f>K54-K53</f>
+        <v>-0.25266359400698318</v>
+      </c>
+      <c r="O43" s="5">
+        <f>K55-K53</f>
+        <v>1.3834103640298769</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="4"/>
+        <v>-6.3165898501745796E-2</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.34585259100746923</v>
+      </c>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>134</v>
       </c>
@@ -5075,8 +5671,14 @@
         <v>1.4431478418462336</v>
       </c>
       <c r="L44" s="5"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>139</v>
       </c>
@@ -5111,8 +5713,14 @@
         <v>1.9697043994046894</v>
       </c>
       <c r="L45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>143</v>
       </c>
@@ -5147,8 +5755,14 @@
         <v>8.0077394567386389</v>
       </c>
       <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>148</v>
       </c>
@@ -5183,8 +5797,14 @@
         <v>0.73189952870282604</v>
       </c>
       <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>152</v>
       </c>
@@ -5219,8 +5839,14 @@
         <v>2.2680177969894908</v>
       </c>
       <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A49">
         <v>157</v>
       </c>
@@ -5255,8 +5881,14 @@
         <v>2.6709889194904322</v>
       </c>
       <c r="L49" s="5"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A50">
         <v>162</v>
       </c>
@@ -5291,8 +5923,14 @@
         <v>0.65358061447701277</v>
       </c>
       <c r="L50" s="5"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A51">
         <v>164</v>
       </c>
@@ -5327,8 +5965,14 @@
         <v>1.2592706200551125</v>
       </c>
       <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A52">
         <v>167</v>
       </c>
@@ -5363,8 +6007,14 @@
         <v>2.6209052397289865</v>
       </c>
       <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A53">
         <v>170</v>
       </c>
@@ -5399,8 +6049,14 @@
         <v>0.59701234632890421</v>
       </c>
       <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A54">
         <v>173</v>
       </c>
@@ -5435,8 +6091,14 @@
         <v>0.34434875232192103</v>
       </c>
       <c r="L54" s="5"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.75">
       <c r="A55">
         <v>177</v>
       </c>
@@ -5471,12 +6133,18 @@
         <f>2^(J55)</f>
         <v>1.9804227103587813</v>
       </c>
-      <c r="L55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.75">
       <c r="I56" s="5"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.75">
       <c r="I57" s="5"/>
     </row>
   </sheetData>
@@ -5487,10 +6155,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A44815-835D-4673-A655-9D6473C1608E}">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M55"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5506,12 +6174,12 @@
     <col min="10" max="10" width="12.31640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.31640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" customWidth="1"/>
-    <col min="15" max="15" width="24.31640625" customWidth="1"/>
+    <col min="13" max="13" width="15.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="15.54296875" customWidth="1"/>
+    <col min="21" max="21" width="24.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5548,20 +6216,38 @@
       <c r="L1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="9" t="s">
         <v>168</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5598,22 +6284,44 @@
       <c r="L2">
         <v>1.1891770362854004</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="10">
         <v>0.43855295526547822</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2">
+        <f>M3-M2</f>
+        <v>0.52357847992175921</v>
+      </c>
+      <c r="Q2">
+        <f>M4-M2</f>
+        <v>7.4561032745149829</v>
+      </c>
+      <c r="R2">
+        <f>P2/4</f>
+        <v>0.1308946199804398</v>
+      </c>
+      <c r="S2">
+        <f>Q2/4</f>
+        <v>1.8640258186287457</v>
+      </c>
+      <c r="T2" t="s">
         <v>96</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <f>AVERAGE(M2,M5,M8,M11,M14,M17)</f>
         <v>1.9257268033972068</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <f>STDEV(M2,M5,M8,M11,M14,M17)</f>
         <v>1.284941736059223</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5650,22 +6358,44 @@
       <c r="L3">
         <v>5.5694103240966797E-2</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="10">
         <v>0.96213143518723743</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3">
+        <f>M6-M5</f>
+        <v>0.35600006108159565</v>
+      </c>
+      <c r="Q3">
+        <f>M7-M5</f>
+        <v>13.36410991486793</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="0">P3/4</f>
+        <v>8.9000015270398913E-2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S7" si="1">Q3/4</f>
+        <v>3.3410274787169825</v>
+      </c>
+      <c r="T3" t="s">
         <v>98</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <f>AVERAGE(M3,M6,M9,M12,M15,M18)</f>
         <v>2.3500727885854249</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <f>STDEV(M3,M6,M9,M12,M15,M18)</f>
         <v>1.2962750528178888</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -5702,22 +6432,44 @@
       <c r="L4">
         <v>-2.9808764457702637</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="10">
         <v>7.8946562297804608</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4">
+        <f>M9-M8</f>
+        <v>1.5715596173465878</v>
+      </c>
+      <c r="Q4">
+        <f>M10-M8</f>
+        <v>22.294758992506917</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.39288990433664694</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>5.5736897481267293</v>
+      </c>
+      <c r="T4" t="s">
         <v>99</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <f>AVERAGE(M4,M7,M10,M13,M16,M19)</f>
         <v>15.369346672389161</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <f>STDEV(M4,M7,M10,M13,M16,M19)</f>
         <v>5.2926965921870668</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -5754,11 +6506,33 @@
       <c r="L5">
         <v>-0.16056601206461574</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="10">
         <v>1.1177255689618641</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5">
+        <f>M12-M11</f>
+        <v>-1.1246119594049198</v>
+      </c>
+      <c r="Q5">
+        <f>M13-M11</f>
+        <v>12.256608377392158</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>-0.28115298985122994</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>3.0641520943480396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -5795,11 +6569,33 @@
       <c r="L6">
         <v>-0.55946795657661363</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
         <v>1.4737256300434598</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N6">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6">
+        <f>M15-M14</f>
+        <v>3.0942360486399916</v>
+      </c>
+      <c r="Q6">
+        <f>M16-M14</f>
+        <v>12.911957199404497</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>0.77355901215999789</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="1"/>
+        <v>3.2279892998511244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -5836,11 +6632,33 @@
       <c r="L7">
         <v>-3.8561725616455078</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="10">
         <v>14.481835483829794</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N7">
+        <v>24</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7">
+        <f>M18-M17</f>
+        <v>-1.8746863364557065</v>
+      </c>
+      <c r="Q7">
+        <f>M19-M17</f>
+        <v>12.378181455265228</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="0"/>
+        <v>-0.46867158411392662</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="1"/>
+        <v>3.094545363816307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5877,11 +6695,11 @@
       <c r="L8">
         <v>-1.0473540782928468</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="10">
         <v>2.0667359487642689</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -5918,14 +6736,14 @@
       <c r="L9">
         <v>-1.8632627487182618</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="10">
         <v>3.6382955661108567</v>
       </c>
-      <c r="O9" t="s">
+      <c r="U9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5962,11 +6780,11 @@
       <c r="L10">
         <v>-4.6065307617187496</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="10">
         <v>24.361494941271186</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -6003,11 +6821,11 @@
       <c r="L11">
         <v>-1.5341266632080077</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="10">
         <v>2.8961306029909482</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -6044,11 +6862,11 @@
       <c r="L12">
         <v>-0.82498664855957049</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="10">
         <v>1.7715186435860284</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -6085,11 +6903,11 @@
       <c r="L13">
         <v>-3.9215066909790037</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="10">
         <v>15.152738980383106</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6126,11 +6944,11 @@
       <c r="L14">
         <v>-0.20440642038981105</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="10">
         <v>1.1522121853461109</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -6167,11 +6985,11 @@
       <c r="L15">
         <v>-2.0862566630045571</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="10">
         <v>4.2464482339861025</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -6208,11 +7026,11 @@
       <c r="L16">
         <v>-3.8139524459838867</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="10">
         <v>14.064169384750608</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -6249,11 +7067,11 @@
       <c r="L17">
         <v>-1.9571730295817056</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="10">
         <v>3.8830035590545724</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -6290,11 +7108,11 @@
       <c r="L18">
         <v>-1.0059871673583984</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="10">
         <v>2.0083172225988659</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -6331,11 +7149,11 @@
       <c r="L19">
         <v>-4.0233604907989502</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="10">
         <v>16.2611850143198</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -6372,22 +7190,44 @@
       <c r="L20" s="1">
         <v>-1.0736203193664551</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="11">
         <v>2.104708330835265</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="5">
+        <v>30</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" s="5">
+        <f>L21-L22</f>
+        <v>-9.7074508666992188E-3</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>M20-M22</f>
+        <v>1.104708330835265</v>
+      </c>
+      <c r="R20" s="5">
+        <f>P20/4</f>
+        <v>-2.4268627166748047E-3</v>
+      </c>
+      <c r="S20" s="5">
+        <f>Q20/4</f>
+        <v>0.27617708270881625</v>
+      </c>
+      <c r="T20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O20">
+      <c r="U20">
         <f>AVERAGE(M20,M23,M26,M29,M32,M35)</f>
         <v>5.54737627031031</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <f>STDEV(M20,M23,M26,M29,M32,M35)</f>
         <v>4.3224134654152708</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -6424,22 +7264,44 @@
       <c r="L21" s="1">
         <v>-9.7074508666992188E-3</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="11">
         <v>1.0067513807074795</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="5">
+        <v>30</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="5">
+        <f>M24-M25</f>
+        <v>0.38605800874854035</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>M23-M25</f>
+        <v>2.3498875104733572</v>
+      </c>
+      <c r="R21" s="5">
+        <f t="shared" ref="R21:R25" si="2">P21/4</f>
+        <v>9.6514502187135087E-2</v>
+      </c>
+      <c r="S21" s="5">
+        <f t="shared" ref="S21:S25" si="3">Q21/4</f>
+        <v>0.5874718776183393</v>
+      </c>
+      <c r="T21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="O21">
+      <c r="U21">
         <f>AVERAGE(M21,M24,M27,M30,M33,M36)</f>
         <v>1.5274717425798385</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <f>STDEV(M21,M24,M27,M30,M33,M36)</f>
         <v>0.83122485132902502</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -6476,22 +7338,44 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5" t="s">
+      <c r="M22" s="11">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>30</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P22" s="5">
+        <f>M27-M28</f>
+        <v>1.6895728770310723</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>M26-M28</f>
+        <v>7.3346560134937437</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42239321925776807</v>
+      </c>
+      <c r="S22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8336640033734359</v>
+      </c>
+      <c r="T22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O22">
+      <c r="U22">
         <f>AVERAGE(M22,M25,M28,M31,M34,M37)</f>
         <v>1</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <f>STDEV(M22,M25,M28,M31,M34,M37)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -6528,12 +7412,34 @@
       <c r="L23" s="1">
         <v>-1.7441126505533853</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="11">
         <v>3.3498875104733572</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N23" s="5">
+        <v>30</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="5">
+        <f>M30-M31</f>
+        <v>1.3511568400627958</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>M29-M31</f>
+        <v>5.3330896749643468</v>
+      </c>
+      <c r="R23" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33778921001569895</v>
+      </c>
+      <c r="S23" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3332724187410867</v>
+      </c>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -6570,12 +7476,34 @@
       <c r="L24" s="1">
         <v>-0.47098763783772757</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="11">
         <v>1.3860580087485403</v>
       </c>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N24" s="5">
+        <v>30</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" s="5">
+        <f>M33-M34</f>
+        <v>-0.49391138120811784</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>M32-M34</f>
+        <v>-0.17284569337694322</v>
+      </c>
+      <c r="R24" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.12347784530202946</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="3"/>
+        <v>-4.3211423344235805E-2</v>
+      </c>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -6612,12 +7540,34 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="5">
-        <v>1</v>
-      </c>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="M25" s="11">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
+        <v>30</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P25" s="5">
+        <f>M36-M37</f>
+        <v>0.22520273013726055</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>M35-M37</f>
+        <v>11.334761785472088</v>
+      </c>
+      <c r="R25" s="5">
+        <f t="shared" si="2"/>
+        <v>5.6300682534315138E-2</v>
+      </c>
+      <c r="S25" s="5">
+        <f t="shared" si="3"/>
+        <v>2.8336904463680219</v>
+      </c>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -6654,14 +7604,20 @@
       <c r="L26" s="1">
         <v>-3.059122657775879</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="11">
         <v>8.3346560134937437</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -6698,12 +7654,18 @@
       <c r="L27" s="1">
         <v>-1.4273770809173585</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="11">
         <v>2.6895728770310723</v>
       </c>
       <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -6740,12 +7702,18 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="11">
         <v>1</v>
       </c>
       <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -6782,12 +7750,18 @@
       <c r="L29" s="1">
         <v>-2.6629095077514648</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="11">
         <v>6.3330896749643468</v>
       </c>
       <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -6824,12 +7798,18 @@
       <c r="L30" s="1">
         <v>-1.2333707809448242</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="11">
         <v>2.3511568400627958</v>
       </c>
       <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -6866,12 +7846,18 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M31" s="11">
         <v>1</v>
       </c>
       <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -6908,12 +7894,18 @@
       <c r="L32" s="1">
         <v>0.27377160390218114</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="11">
         <v>0.82715430662305678</v>
       </c>
       <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -6950,12 +7942,18 @@
       <c r="L33" s="1">
         <v>0.98253806432088231</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="11">
         <v>0.50608861879188216</v>
       </c>
       <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -6992,12 +7990,18 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="11">
         <v>1</v>
       </c>
       <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -7034,12 +8038,18 @@
       <c r="L35" s="1">
         <v>-3.6246579488118491</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="11">
         <v>12.334761785472088</v>
       </c>
       <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -7076,12 +8086,18 @@
       <c r="L36" s="1">
         <v>-0.29302048683166504</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="11">
         <v>1.2252027301372606</v>
       </c>
       <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -7118,12 +8134,18 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="11">
         <v>1</v>
       </c>
       <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -7160,22 +8182,44 @@
       <c r="L38" s="1">
         <v>-0.15520048141479492</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="11">
         <v>1.1135763535298939</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="5">
+        <v>34</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="5">
+        <f>M39-M38</f>
+        <v>-0.26274906564077138</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>M40-M38</f>
+        <v>2.4958914535050325</v>
+      </c>
+      <c r="R38" s="5">
+        <f>P38/4</f>
+        <v>-6.5687266410192846E-2</v>
+      </c>
+      <c r="S38" s="5">
+        <f>Q38/4</f>
+        <v>0.62397286337625812</v>
+      </c>
+      <c r="T38" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="O38">
+      <c r="U38">
         <f>AVERAGE(M38,M41,M44,M47,M50,M53)</f>
         <v>1.087882113591929</v>
       </c>
-      <c r="P38">
+      <c r="V38">
         <f>STDEV(M38,M41,M44,M47,M50,M53)</f>
         <v>0.13939580176933247</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -7212,22 +8256,44 @@
       <c r="L39" s="1">
         <v>0.23306179046630859</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="11">
         <v>0.85082728788912254</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="5">
+        <v>34</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P39" s="5">
+        <f>M42-M41</f>
+        <v>9.5721760866388284E-2</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>M43-M41</f>
+        <v>1.5406129214877571</v>
+      </c>
+      <c r="R39" s="5">
+        <f t="shared" ref="R39:R43" si="4">P39/4</f>
+        <v>2.3930440216597071E-2</v>
+      </c>
+      <c r="S39" s="5">
+        <f t="shared" ref="S39:S43" si="5">Q39/4</f>
+        <v>0.38515323037193927</v>
+      </c>
+      <c r="T39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O39">
+      <c r="U39">
         <f>AVERAGE(M39,M42,M45,M48,M51,M54)</f>
         <v>1.2789028402290834</v>
       </c>
-      <c r="P39">
+      <c r="V39">
         <f>STDEV(M39,M42,M45,M48,M51,M54)</f>
         <v>0.49689576567612181</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -7264,22 +8330,44 @@
       <c r="L40" s="1">
         <v>-1.8517861366271973</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="11">
         <v>3.6094678070349264</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="5">
+        <v>34</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" s="5">
+        <f>M45-M44</f>
+        <v>-0.10327077464589274</v>
+      </c>
+      <c r="Q40" s="5">
+        <f>M46-M44</f>
+        <v>4.1619506374899755</v>
+      </c>
+      <c r="R40" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.5817693661473184E-2</v>
+      </c>
+      <c r="S40" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0404876593724939</v>
+      </c>
+      <c r="T40" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O40">
+      <c r="U40">
         <f>AVERAGE(M40,M43,M46,M49,M52,M55)</f>
         <v>5.0289815188425164</v>
       </c>
-      <c r="P40">
+      <c r="V40">
         <f>STDEV(M40,M43,M46,M49,M52,M55)</f>
         <v>2.3458152496827798</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -7316,12 +8404,34 @@
       <c r="L41" s="1">
         <v>-0.32338444391886378</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="11">
         <v>1.2512624673819928</v>
       </c>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N41" s="5">
+        <v>34</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P41" s="5">
+        <f>M48-M47</f>
+        <v>1.3014387131230554</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>M49-M47</f>
+        <v>4.4299677873609058</v>
+      </c>
+      <c r="R41" s="5">
+        <f t="shared" si="4"/>
+        <v>0.32535967828076384</v>
+      </c>
+      <c r="S41" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1074919468402264</v>
+      </c>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -7358,12 +8468,34 @@
       <c r="L42" s="1">
         <v>-0.42973295847574855</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="11">
         <v>1.346984228248381</v>
       </c>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N42" s="5">
+        <v>34</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P42" s="5">
+        <f>M51-M50</f>
+        <v>-0.11397132991539294</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>M52-M50</f>
+        <v>2.6764301643591493</v>
+      </c>
+      <c r="R42" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.8492832478848235E-2</v>
+      </c>
+      <c r="S42" s="5">
+        <f t="shared" si="5"/>
+        <v>0.66910754108978732</v>
+      </c>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -7400,12 +8532,34 @@
       <c r="L43" s="1">
         <v>-1.481234550476074</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="11">
         <v>2.7918753888697498</v>
       </c>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="N43" s="5">
+        <v>34</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="5">
+        <f>M54-M53</f>
+        <v>0.22895505603554156</v>
+      </c>
+      <c r="Q43" s="5">
+        <f>M55-M53</f>
+        <v>8.3417434673007058</v>
+      </c>
+      <c r="R43" s="5">
+        <f t="shared" si="4"/>
+        <v>5.723876400888539E-2</v>
+      </c>
+      <c r="S43" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0854358668251765</v>
+      </c>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -7442,12 +8596,18 @@
       <c r="L44" s="1">
         <v>-0.31604895591735849</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="11">
         <v>1.2449164792330876</v>
       </c>
       <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -7484,15 +8644,21 @@
       <c r="L45" s="1">
         <v>-0.19111499786376962</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="11">
         <v>1.1416457045871948</v>
       </c>
       <c r="N45" s="5"/>
-      <c r="P45" t="s">
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="V45" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -7529,12 +8695,18 @@
       <c r="L46" s="1">
         <v>-2.4347929000854496</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="11">
         <v>5.4068671167230633</v>
       </c>
       <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -7571,12 +8743,18 @@
       <c r="L47" s="1">
         <v>0.12571287155151367</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="11">
         <v>0.91655104059714321</v>
       </c>
       <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.75">
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -7613,12 +8791,18 @@
       <c r="L48" s="1">
         <v>-1.1492527008056639</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="11">
         <v>2.2179897537201985</v>
       </c>
       <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -7655,12 +8839,18 @@
       <c r="L49" s="1">
         <v>-2.4185998439788818</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="11">
         <v>5.3465188279580493</v>
       </c>
       <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -7697,12 +8887,18 @@
       <c r="L50" s="1">
         <v>-2.3663202921549331E-2</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="11">
         <v>1.0165373350044271</v>
       </c>
       <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -7739,12 +8935,18 @@
       <c r="L51" s="1">
         <v>0.147895654042562</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="11">
         <v>0.90256600508903417</v>
       </c>
       <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -7781,12 +8983,18 @@
       <c r="L52" s="1">
         <v>-1.8847805658976235</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="11">
         <v>3.6929674993635762</v>
       </c>
       <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -7823,12 +9031,18 @@
       <c r="L53" s="1">
         <v>2.2611618041992188E-2</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="11">
         <v>0.98444900580502814</v>
       </c>
       <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -7865,12 +9079,18 @@
       <c r="L54" s="1">
         <v>-0.27906004587809274</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="11">
         <v>1.2134040618405697</v>
       </c>
       <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -7907,10 +9127,16 @@
       <c r="L55" s="1">
         <v>-3.2212882041931152</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="11">
         <v>9.3261924731057331</v>
       </c>
       <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7924,7 +9150,7 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9850,19 +11076,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70B6DBD-1BBD-49F4-A484-C2378ACED893}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="3" max="3" width="7.54296875" customWidth="1"/>
     <col min="9" max="9" width="16.6328125" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>92</v>
       </c>
@@ -9902,11 +11129,23 @@
       <c r="M1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9937,14 +11176,33 @@
       <c r="J2">
         <v>-0.58199999999999996</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>1.4968999999999999</v>
       </c>
       <c r="L2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O2">
+        <v>24</v>
+      </c>
+      <c r="P2">
+        <f>(K3-K2)</f>
+        <v>2.9264000000000001</v>
+      </c>
+      <c r="Q2">
+        <f>K4-K2</f>
+        <v>50.215100000000007</v>
+      </c>
+      <c r="R2">
+        <f>P2/4</f>
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="S2">
+        <f>Q2/4</f>
+        <v>12.553775000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9975,14 +11233,33 @@
       <c r="J3">
         <v>-2.145</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>4.4233000000000002</v>
       </c>
       <c r="L3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <f>K6-K5</f>
+        <v>3.0530999999999997</v>
+      </c>
+      <c r="Q3">
+        <f>K7-K5</f>
+        <v>19.3948</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R7" si="0">P3/4</f>
+        <v>0.76327499999999993</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S7" si="1">Q3/4</f>
+        <v>4.8487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>4</v>
       </c>
@@ -10013,14 +11290,33 @@
       <c r="J4">
         <v>-5.6920000000000002</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>51.712000000000003</v>
       </c>
       <c r="L4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O4">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <f>K9-K8</f>
+        <v>1.3301000000000001</v>
+      </c>
+      <c r="Q4">
+        <f>K10-K8</f>
+        <v>43.544600000000003</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>0.33252500000000002</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>10.886150000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10051,11 +11347,30 @@
       <c r="J5">
         <v>-0.313</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>1.2423</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O5">
+        <v>24</v>
+      </c>
+      <c r="P5">
+        <f>K12-K11</f>
+        <v>12.1906</v>
+      </c>
+      <c r="Q5">
+        <f>K13-K11</f>
+        <v>31.2818</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>3.04765</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>7.8204500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>8</v>
       </c>
@@ -10086,11 +11401,30 @@
       <c r="J6">
         <v>-2.1030000000000002</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>4.2953999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O6">
+        <v>24</v>
+      </c>
+      <c r="P6" t="e">
+        <f>K15-K14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" t="e">
+        <f>K16-K14</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>11</v>
       </c>
@@ -10121,11 +11455,30 @@
       <c r="J7">
         <v>-4.367</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>20.6371</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="O7">
+        <v>24</v>
+      </c>
+      <c r="P7" t="e">
+        <f>K18-K17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" t="e">
+        <f>K19-K17</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>14</v>
       </c>
@@ -10156,11 +11509,11 @@
       <c r="J8">
         <v>-0.17499999999999999</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>1.1293</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>18</v>
       </c>
@@ -10191,11 +11544,11 @@
       <c r="J9">
         <v>-1.298</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="4">
         <v>2.4594</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>23</v>
       </c>
@@ -10226,11 +11579,11 @@
       <c r="J10">
         <v>-5.4809999999999999</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>44.673900000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>28</v>
       </c>
@@ -10261,11 +11614,11 @@
       <c r="J11">
         <v>-0.32600000000000001</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="4">
         <v>1.2533000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>33</v>
       </c>
@@ -10296,11 +11649,11 @@
       <c r="J12">
         <v>-3.7490000000000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="4">
         <v>13.443899999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>38</v>
       </c>
@@ -10331,11 +11684,11 @@
       <c r="J13">
         <v>-5.024</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="4">
         <v>32.5351</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>43</v>
       </c>
@@ -10366,11 +11719,11 @@
       <c r="J14" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K14" t="e">
+      <c r="K14" s="4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>45</v>
       </c>
@@ -10401,11 +11754,11 @@
       <c r="J15">
         <v>-1.581</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="4">
         <v>2.9918</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>47</v>
       </c>
@@ -10436,11 +11789,11 @@
       <c r="J16">
         <v>-4.1260000000000003</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="4">
         <v>17.4602</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>50</v>
       </c>
@@ -10471,11 +11824,11 @@
       <c r="J17">
         <v>0.71099999999999997</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="4">
         <v>0.61080000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>54</v>
       </c>
@@ -10506,11 +11859,11 @@
       <c r="J18" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K18" t="e">
+      <c r="K18" s="4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>57</v>
       </c>
@@ -10541,11 +11894,11 @@
       <c r="J19" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K19" t="e">
+      <c r="K19" s="4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>61</v>
       </c>
@@ -10576,14 +11929,33 @@
       <c r="J20">
         <v>-3.496</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="4">
         <v>11.2843</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O20">
+        <v>30</v>
+      </c>
+      <c r="P20">
+        <f>K21-K22</f>
+        <v>1.6360000000000001</v>
+      </c>
+      <c r="Q20">
+        <f>K20-K22</f>
+        <v>10.5307</v>
+      </c>
+      <c r="R20">
+        <f>P20/4</f>
+        <v>0.40900000000000003</v>
+      </c>
+      <c r="S20">
+        <f>Q20/4</f>
+        <v>2.6326749999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>63</v>
       </c>
@@ -10614,14 +11986,33 @@
       <c r="J21">
         <v>-1.2569999999999999</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="4">
         <v>2.3896000000000002</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O21">
+        <v>30</v>
+      </c>
+      <c r="P21">
+        <f>K24-K25</f>
+        <v>3.8122999999999996</v>
+      </c>
+      <c r="Q21">
+        <f>K23-K25</f>
+        <v>7.4407000000000005</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ref="R21:R25" si="2">P21/4</f>
+        <v>0.95307499999999989</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ref="S21:S25" si="3">Q21/4</f>
+        <v>1.8601750000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A22">
         <v>65</v>
       </c>
@@ -10652,14 +12043,33 @@
       <c r="J22">
         <v>0.40799999999999997</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="4">
         <v>0.75360000000000005</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22">
+        <f>K27-K28</f>
+        <v>7.9464999999999995</v>
+      </c>
+      <c r="Q22">
+        <f>K26-K28</f>
+        <v>11.444799999999999</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>1.9866249999999999</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>2.8611999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A23">
         <v>68</v>
       </c>
@@ -10690,12 +12100,31 @@
       <c r="J23">
         <v>-3.0409999999999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="4">
         <v>8.2329000000000008</v>
       </c>
       <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <f>K30-K31</f>
+        <v>2.0787</v>
+      </c>
+      <c r="Q23">
+        <f>K29-K31</f>
+        <v>5.5903999999999998</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0.519675</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>1.3976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A24">
         <v>69</v>
       </c>
@@ -10726,12 +12155,31 @@
       <c r="J24">
         <v>-2.2029999999999998</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="4">
         <v>4.6044999999999998</v>
       </c>
       <c r="L24" s="5"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O24">
+        <v>30</v>
+      </c>
+      <c r="P24" t="e">
+        <f>K33-K34</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q24">
+        <f>K32-K34</f>
+        <v>24.978300000000001</v>
+      </c>
+      <c r="R24" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>6.2445750000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A25">
         <v>72</v>
       </c>
@@ -10762,12 +12210,31 @@
       <c r="J25">
         <v>0.33600000000000002</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="4">
         <v>0.79220000000000002</v>
       </c>
       <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O25">
+        <v>30</v>
+      </c>
+      <c r="P25" t="e">
+        <f>K36-K37</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q25">
+        <f>K35-K37</f>
+        <v>-0.37719999999999998</v>
+      </c>
+      <c r="R25" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>-9.4299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A26">
         <v>75</v>
       </c>
@@ -10798,14 +12265,14 @@
       <c r="J26">
         <v>-3.5579999999999998</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="4">
         <v>11.7745</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A27">
         <v>79</v>
       </c>
@@ -10836,12 +12303,12 @@
       <c r="J27">
         <v>-3.0489999999999999</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="4">
         <v>8.2761999999999993</v>
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A28">
         <v>83</v>
       </c>
@@ -10872,12 +12339,12 @@
       <c r="J28">
         <v>1.601</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="4">
         <v>0.32969999999999999</v>
       </c>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A29">
         <v>89</v>
       </c>
@@ -10908,12 +12375,12 @@
       <c r="J29">
         <v>-2.7610000000000001</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="4">
         <v>6.7778999999999998</v>
       </c>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A30">
         <v>93</v>
       </c>
@@ -10944,12 +12411,12 @@
       <c r="J30">
         <v>-1.708</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="4">
         <v>3.2662</v>
       </c>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A31">
         <v>98</v>
       </c>
@@ -10980,12 +12447,12 @@
       <c r="J31">
         <v>-0.248</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="4">
         <v>1.1875</v>
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A32">
         <v>104</v>
       </c>
@@ -11016,12 +12483,12 @@
       <c r="J32">
         <v>-4.78</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="4">
         <v>27.4818</v>
       </c>
       <c r="L32" s="5"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A33">
         <v>106</v>
       </c>
@@ -11052,12 +12519,12 @@
       <c r="J33" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K33" t="e">
+      <c r="K33" s="4" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="L33" s="5"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A34">
         <v>108</v>
       </c>
@@ -11088,12 +12555,12 @@
       <c r="J34">
         <v>-1.3240000000000001</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="4">
         <v>2.5034999999999998</v>
       </c>
       <c r="L34" s="5"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A35">
         <v>111</v>
       </c>
@@ -11124,12 +12591,12 @@
       <c r="J35">
         <v>0.68300000000000005</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="4">
         <v>0.62280000000000002</v>
       </c>
       <c r="L35" s="5"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A36">
         <v>114</v>
       </c>
@@ -11160,12 +12627,12 @@
       <c r="J36" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K36" t="e">
+      <c r="K36" s="4" t="e">
         <v>#VALUE!</v>
       </c>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A37">
         <v>118</v>
       </c>
@@ -11196,12 +12663,12 @@
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="4">
         <v>1</v>
       </c>
       <c r="L37" s="5"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A38">
         <v>122</v>
       </c>
@@ -11232,14 +12699,33 @@
       <c r="J38">
         <v>-0.48899999999999999</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="4">
         <v>1.4032</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O38">
+        <v>34</v>
+      </c>
+      <c r="P38">
+        <f>K39-K38</f>
+        <v>-0.55689999999999995</v>
+      </c>
+      <c r="Q38">
+        <f>K40-K38</f>
+        <v>20.8506</v>
+      </c>
+      <c r="R38">
+        <f>P38/4</f>
+        <v>-0.13922499999999999</v>
+      </c>
+      <c r="S38">
+        <f>Q38/4</f>
+        <v>5.21265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A39">
         <v>123</v>
       </c>
@@ -11270,14 +12756,33 @@
       <c r="J39">
         <v>0.24099999999999999</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="4">
         <v>0.84630000000000005</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O39">
+        <v>34</v>
+      </c>
+      <c r="P39">
+        <f>K42-K41</f>
+        <v>0.95970000000000022</v>
+      </c>
+      <c r="Q39">
+        <f>K43-K41</f>
+        <v>10.023100000000001</v>
+      </c>
+      <c r="R39">
+        <f t="shared" ref="R39:R43" si="4">P39/4</f>
+        <v>0.23992500000000005</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ref="S39:S43" si="5">Q39/4</f>
+        <v>2.5057750000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A40">
         <v>125</v>
       </c>
@@ -11308,14 +12813,33 @@
       <c r="J40">
         <v>-4.476</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="4">
         <v>22.253799999999998</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O40">
+        <v>34</v>
+      </c>
+      <c r="P40">
+        <f>K45-K44</f>
+        <v>1.5251000000000001</v>
+      </c>
+      <c r="Q40">
+        <f>K46-K44</f>
+        <v>9.8362999999999996</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="4"/>
+        <v>0.38127500000000003</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>2.4590749999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A41">
         <v>127</v>
       </c>
@@ -11346,11 +12870,30 @@
       <c r="J41">
         <v>-0.95</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="4">
         <v>1.9323999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O41">
+        <v>34</v>
+      </c>
+      <c r="P41">
+        <f>K48-K47</f>
+        <v>-0.2511000000000001</v>
+      </c>
+      <c r="Q41">
+        <f>K49-K47</f>
+        <v>3.84</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="4"/>
+        <v>-6.2775000000000025E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A42">
         <v>129</v>
       </c>
@@ -11381,11 +12924,30 @@
       <c r="J42">
         <v>-1.532</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="4">
         <v>2.8921000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O42">
+        <v>34</v>
+      </c>
+      <c r="P42" t="e">
+        <f>K51-K50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q42" t="e">
+        <f>K52-K50</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R42" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S42" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A43">
         <v>131</v>
       </c>
@@ -11416,11 +12978,30 @@
       <c r="J43">
         <v>-3.58</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="4">
         <v>11.955500000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="O43">
+        <v>34</v>
+      </c>
+      <c r="P43" t="e">
+        <f>K54-K53</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q43">
+        <f>K55-K53</f>
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="R43" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="5"/>
+        <v>0.23477500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A44">
         <v>134</v>
       </c>
@@ -11451,11 +13032,11 @@
       <c r="J44">
         <v>0.13500000000000001</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="4">
         <v>0.91059999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A45">
         <v>139</v>
       </c>
@@ -11486,11 +13067,11 @@
       <c r="J45">
         <v>-1.284</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="4">
         <v>2.4357000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A46">
         <v>143</v>
       </c>
@@ -11521,11 +13102,11 @@
       <c r="J46">
         <v>-3.4260000000000002</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="4">
         <v>10.7469</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A47">
         <v>148</v>
       </c>
@@ -11556,11 +13137,11 @@
       <c r="J47">
         <v>-1.399</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="4">
         <v>2.6364000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A48">
         <v>152</v>
       </c>
@@ -11591,7 +13172,7 @@
       <c r="J48">
         <v>-1.254</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="4">
         <v>2.3853</v>
       </c>
     </row>
@@ -11626,7 +13207,7 @@
       <c r="J49">
         <v>-2.6949999999999998</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="4">
         <v>6.4763999999999999</v>
       </c>
     </row>
@@ -11661,7 +13242,7 @@
       <c r="J50" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K50" t="e">
+      <c r="K50" s="4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11696,7 +13277,7 @@
       <c r="J51">
         <v>-2.2730000000000001</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="4">
         <v>4.8316999999999997</v>
       </c>
     </row>
@@ -11731,7 +13312,7 @@
       <c r="J52" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K52" t="e">
+      <c r="K52" s="4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11766,7 +13347,7 @@
       <c r="J53">
         <v>-8.6999999999999994E-2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="4">
         <v>1.0620000000000001</v>
       </c>
     </row>
@@ -11801,7 +13382,7 @@
       <c r="J54" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="K54" t="e">
+      <c r="K54" s="4" t="e">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11836,12 +13417,13 @@
       <c r="J55">
         <v>-1.0009999999999999</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="4">
         <v>2.0011000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14945,7 +16527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5831132A-6213-4CBC-8484-5B92B74FBD42}">
   <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E218" sqref="E218"/>
     </sheetView>
   </sheetViews>
@@ -18687,22 +20269,3602 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66E83A-C69F-4B45-BCC6-D1430A4D8449}">
+  <dimension ref="A1:F57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>2.9264000000000001</v>
+      </c>
+      <c r="D2">
+        <v>50.215100000000007</v>
+      </c>
+      <c r="E2">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="F2">
+        <v>12.553775000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3">
+        <v>3.0530999999999997</v>
+      </c>
+      <c r="D3">
+        <v>19.3948</v>
+      </c>
+      <c r="E3">
+        <v>0.76327499999999993</v>
+      </c>
+      <c r="F3">
+        <v>4.8487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4">
+        <v>1.3301000000000001</v>
+      </c>
+      <c r="D4">
+        <v>43.544600000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.33252500000000002</v>
+      </c>
+      <c r="F4">
+        <v>10.886150000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5">
+        <v>12.1906</v>
+      </c>
+      <c r="D5">
+        <v>31.2818</v>
+      </c>
+      <c r="E5">
+        <v>3.04765</v>
+      </c>
+      <c r="F5">
+        <v>7.8204500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8">
+        <v>1.6360000000000001</v>
+      </c>
+      <c r="D8">
+        <v>10.5307</v>
+      </c>
+      <c r="E8">
+        <v>0.40900000000000003</v>
+      </c>
+      <c r="F8">
+        <v>2.6326749999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9">
+        <v>3.8122999999999996</v>
+      </c>
+      <c r="D9">
+        <v>7.4407000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.95307499999999989</v>
+      </c>
+      <c r="F9">
+        <v>1.8601750000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10">
+        <v>7.9464999999999995</v>
+      </c>
+      <c r="D10">
+        <v>11.444799999999999</v>
+      </c>
+      <c r="E10">
+        <v>1.9866249999999999</v>
+      </c>
+      <c r="F10">
+        <v>2.8611999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11">
+        <v>2.0787</v>
+      </c>
+      <c r="D11">
+        <v>5.5903999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.519675</v>
+      </c>
+      <c r="F11">
+        <v>1.3976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D12">
+        <v>24.978300000000001</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12">
+        <v>6.2445750000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13">
+        <v>-0.37719999999999998</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F13">
+        <v>-9.4299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14">
+        <v>-0.55689999999999995</v>
+      </c>
+      <c r="D14">
+        <v>20.8506</v>
+      </c>
+      <c r="E14">
+        <v>-0.13922499999999999</v>
+      </c>
+      <c r="F14">
+        <v>5.21265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15">
+        <v>0.95970000000000022</v>
+      </c>
+      <c r="D15">
+        <v>10.023100000000001</v>
+      </c>
+      <c r="E15">
+        <v>0.23992500000000005</v>
+      </c>
+      <c r="F15">
+        <v>2.5057750000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>1.5251000000000001</v>
+      </c>
+      <c r="D16">
+        <v>9.8362999999999996</v>
+      </c>
+      <c r="E16">
+        <v>0.38127500000000003</v>
+      </c>
+      <c r="F16">
+        <v>2.4590749999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17">
+        <v>-0.2511000000000001</v>
+      </c>
+      <c r="D17">
+        <v>3.84</v>
+      </c>
+      <c r="E17">
+        <v>-6.2775000000000025E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D19">
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19">
+        <v>0.23477500000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>0.52357847992175921</v>
+      </c>
+      <c r="D21">
+        <v>7.4561032745149829</v>
+      </c>
+      <c r="E21">
+        <v>0.1308946199804398</v>
+      </c>
+      <c r="F21">
+        <v>1.8640258186287457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>0.35600006108159565</v>
+      </c>
+      <c r="D22">
+        <v>13.36410991486793</v>
+      </c>
+      <c r="E22">
+        <v>8.9000015270398913E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.3410274787169825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <v>1.5715596173465878</v>
+      </c>
+      <c r="D23">
+        <v>22.294758992506917</v>
+      </c>
+      <c r="E23">
+        <v>0.39288990433664694</v>
+      </c>
+      <c r="F23">
+        <v>5.5736897481267293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>-1.1246119594049198</v>
+      </c>
+      <c r="D24">
+        <v>12.256608377392158</v>
+      </c>
+      <c r="E24">
+        <v>-0.28115298985122994</v>
+      </c>
+      <c r="F24">
+        <v>3.0641520943480396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25">
+        <v>3.0942360486399916</v>
+      </c>
+      <c r="D25">
+        <v>12.911957199404497</v>
+      </c>
+      <c r="E25">
+        <v>0.77355901215999789</v>
+      </c>
+      <c r="F25">
+        <v>3.2279892998511244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26">
+        <v>-1.8746863364557065</v>
+      </c>
+      <c r="D26">
+        <v>12.378181455265228</v>
+      </c>
+      <c r="E26">
+        <v>-0.46867158411392662</v>
+      </c>
+      <c r="F26">
+        <v>3.094545363816307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>-9.7074508666992188E-3</v>
+      </c>
+      <c r="D27">
+        <v>1.104708330835265</v>
+      </c>
+      <c r="E27">
+        <v>-2.4268627166748047E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.27617708270881625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>0.38605800874854035</v>
+      </c>
+      <c r="D28">
+        <v>2.3498875104733572</v>
+      </c>
+      <c r="E28">
+        <v>9.6514502187135087E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.5874718776183393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>1.6895728770310723</v>
+      </c>
+      <c r="D29">
+        <v>7.3346560134937437</v>
+      </c>
+      <c r="E29">
+        <v>0.42239321925776807</v>
+      </c>
+      <c r="F29">
+        <v>1.8336640033734359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>1.3511568400627958</v>
+      </c>
+      <c r="D30">
+        <v>5.3330896749643468</v>
+      </c>
+      <c r="E30">
+        <v>0.33778921001569895</v>
+      </c>
+      <c r="F30">
+        <v>1.3332724187410867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31">
+        <v>-0.49391138120811784</v>
+      </c>
+      <c r="D31">
+        <v>-0.17284569337694322</v>
+      </c>
+      <c r="E31">
+        <v>-0.12347784530202946</v>
+      </c>
+      <c r="F31">
+        <v>-4.3211423344235805E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>0.22520273013726055</v>
+      </c>
+      <c r="D32">
+        <v>11.334761785472088</v>
+      </c>
+      <c r="E32">
+        <v>5.6300682534315138E-2</v>
+      </c>
+      <c r="F32">
+        <v>2.8336904463680219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33">
+        <v>-0.26274906564077138</v>
+      </c>
+      <c r="D33">
+        <v>2.4958914535050325</v>
+      </c>
+      <c r="E33">
+        <v>-6.5687266410192846E-2</v>
+      </c>
+      <c r="F33">
+        <v>0.62397286337625812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>9.5721760866388284E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.5406129214877571</v>
+      </c>
+      <c r="E34">
+        <v>2.3930440216597071E-2</v>
+      </c>
+      <c r="F34">
+        <v>0.38515323037193927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35">
+        <v>-0.10327077464589274</v>
+      </c>
+      <c r="D35">
+        <v>4.1619506374899755</v>
+      </c>
+      <c r="E35">
+        <v>-2.5817693661473184E-2</v>
+      </c>
+      <c r="F35">
+        <v>1.0404876593724939</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>1.3014387131230554</v>
+      </c>
+      <c r="D36">
+        <v>4.4299677873609058</v>
+      </c>
+      <c r="E36">
+        <v>0.32535967828076384</v>
+      </c>
+      <c r="F36">
+        <v>1.1074919468402264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37">
+        <v>-0.11397132991539294</v>
+      </c>
+      <c r="D37">
+        <v>2.6764301643591493</v>
+      </c>
+      <c r="E37">
+        <v>-2.8492832478848235E-2</v>
+      </c>
+      <c r="F37">
+        <v>0.66910754108978732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>0.22895505603554156</v>
+      </c>
+      <c r="D38">
+        <v>8.3417434673007058</v>
+      </c>
+      <c r="E38">
+        <v>5.723876400888539E-2</v>
+      </c>
+      <c r="F38">
+        <v>2.0854358668251765</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40">
+        <v>2.1674096927252626</v>
+      </c>
+      <c r="D40">
+        <v>1.9730344540926095</v>
+      </c>
+      <c r="E40">
+        <v>0.54185242318131566</v>
+      </c>
+      <c r="F40">
+        <v>0.49325861352315237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41">
+        <v>2.8819698592653511</v>
+      </c>
+      <c r="D41">
+        <v>23.47954902151502</v>
+      </c>
+      <c r="E41">
+        <v>0.72049246481633777</v>
+      </c>
+      <c r="F41">
+        <v>5.8698872553787549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42">
+        <v>2.28732127676271</v>
+      </c>
+      <c r="D42">
+        <v>22.097596283964549</v>
+      </c>
+      <c r="E42">
+        <v>0.57183031919067751</v>
+      </c>
+      <c r="F42">
+        <v>5.5243990709911373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43">
+        <v>0.77677584141583944</v>
+      </c>
+      <c r="D43">
+        <v>9.4910243911651282</v>
+      </c>
+      <c r="E43">
+        <v>0.19419396035395986</v>
+      </c>
+      <c r="F43">
+        <v>2.372756097791282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44">
+        <v>1.4490142379581048</v>
+      </c>
+      <c r="D44">
+        <v>-0.16428732015432557</v>
+      </c>
+      <c r="E44">
+        <v>0.3622535594895262</v>
+      </c>
+      <c r="F44">
+        <v>-4.1071830038581392E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45">
+        <v>3.3276455885552041</v>
+      </c>
+      <c r="D45">
+        <v>16.796591855624669</v>
+      </c>
+      <c r="E45">
+        <v>0.83191139713880102</v>
+      </c>
+      <c r="F45">
+        <v>4.1991479639061673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46">
+        <v>0.48133296960162264</v>
+      </c>
+      <c r="D46">
+        <v>-0.37073424712287617</v>
+      </c>
+      <c r="E46">
+        <v>0.12033324240040566</v>
+      </c>
+      <c r="F46">
+        <v>-9.2683561780719043E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47">
+        <v>1.193379100598857</v>
+      </c>
+      <c r="D47">
+        <v>7.4712330715386397</v>
+      </c>
+      <c r="E47">
+        <v>0.29834477514971425</v>
+      </c>
+      <c r="F47">
+        <v>1.8678082678846599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48">
+        <v>1.8798616356860864</v>
+      </c>
+      <c r="D48">
+        <v>6.2401684522156904</v>
+      </c>
+      <c r="E48">
+        <v>0.46996540892152161</v>
+      </c>
+      <c r="F48">
+        <v>1.5600421130539226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49">
+        <v>1.4557101522683311</v>
+      </c>
+      <c r="D49">
+        <v>3.9186883858404551</v>
+      </c>
+      <c r="E49">
+        <v>0.36392753806708278</v>
+      </c>
+      <c r="F49">
+        <v>0.97967209646011377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50">
+        <v>0.15428155254743725</v>
+      </c>
+      <c r="D50">
+        <v>5.6619319408771291</v>
+      </c>
+      <c r="E50">
+        <v>3.8570388136859313E-2</v>
+      </c>
+      <c r="F50">
+        <v>1.4154829852192823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51">
+        <v>0.15687403044970938</v>
+      </c>
+      <c r="D51">
+        <v>0.54917751741272203</v>
+      </c>
+      <c r="E51">
+        <v>3.9218507612427345E-2</v>
+      </c>
+      <c r="F51">
+        <v>0.13729437935318051</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52">
+        <v>1.9434219504258725</v>
+      </c>
+      <c r="D52">
+        <v>23.411548651237531</v>
+      </c>
+      <c r="E52">
+        <v>0.48585548760646813</v>
+      </c>
+      <c r="F52">
+        <v>5.8528871628093828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53">
+        <v>0.4913652073774315</v>
+      </c>
+      <c r="D53">
+        <v>10.887894234949629</v>
+      </c>
+      <c r="E53">
+        <v>0.12284130184435788</v>
+      </c>
+      <c r="F53">
+        <v>2.7219735587374072</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54">
+        <v>0.52655655755845587</v>
+      </c>
+      <c r="D54">
+        <v>6.5645916148924055</v>
+      </c>
+      <c r="E54">
+        <v>0.13163913938961397</v>
+      </c>
+      <c r="F54">
+        <v>1.6411479037231014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55">
+        <v>1.5361182682866648</v>
+      </c>
+      <c r="D55">
+        <v>1.9390893907876061</v>
+      </c>
+      <c r="E55">
+        <v>0.38402956707166619</v>
+      </c>
+      <c r="F55">
+        <v>0.48477234769690153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56">
+        <v>0.60569000557809971</v>
+      </c>
+      <c r="D56">
+        <v>1.9673246252519738</v>
+      </c>
+      <c r="E56">
+        <v>0.15142250139452493</v>
+      </c>
+      <c r="F56">
+        <v>0.49183115631299346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57">
+        <v>-0.25266359400698318</v>
+      </c>
+      <c r="D57">
+        <v>1.3834103640298769</v>
+      </c>
+      <c r="E57">
+        <v>-6.3165898501745796E-2</v>
+      </c>
+      <c r="F57">
+        <v>0.34585259100746923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AD93D1-1ED3-4525-B014-479637F0D730}">
+  <dimension ref="A1:E145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3">
+        <v>0.76327499999999993</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4">
+        <v>0.33252500000000002</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5">
+        <v>3.04765</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8">
+        <v>0.40900000000000003</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9">
+        <v>0.95307499999999989</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10">
+        <v>1.9866249999999999</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11">
+        <v>0.519675</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14">
+        <v>-0.13922499999999999</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15">
+        <v>0.23992500000000005</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16">
+        <v>0.38127500000000003</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17">
+        <v>-6.2775000000000025E-2</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20">
+        <v>0.40900000000000003</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21">
+        <v>0.95307499999999989</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22">
+        <v>1.9866249999999999</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23">
+        <v>0.519675</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A25">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26">
+        <v>12.553775000000002</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27">
+        <v>4.8487</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28">
+        <v>10.886150000000001</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A29">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29">
+        <v>7.8204500000000001</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C30" t="s">
+        <v>196</v>
+      </c>
+      <c r="D30" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32">
+        <v>2.6326749999999999</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33">
+        <v>1.8601750000000001</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34">
+        <v>2.8611999999999997</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35">
+        <v>1.3976</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36">
+        <v>6.2445750000000002</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37">
+        <v>-9.4299999999999995E-2</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38">
+        <v>5.21265</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A39">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39">
+        <v>2.5057750000000003</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40">
+        <v>2.4590749999999999</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41">
+        <v>0.96</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43">
+        <v>0.23477500000000001</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44">
+        <v>2.6326749999999999</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45">
+        <v>1.8601750000000001</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46">
+        <v>2.8611999999999997</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47">
+        <v>1.3976</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48">
+        <v>6.2445750000000002</v>
+      </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49">
+        <v>-9.4299999999999995E-2</v>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50">
+        <v>1.8640258186287457</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51">
+        <v>3.3410274787169825</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D52">
+        <v>5.5736897481267293</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>196</v>
+      </c>
+      <c r="D53">
+        <v>3.0641520943480396</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A54">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54">
+        <v>3.2279892998511244</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55">
+        <v>3.094545363816307</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56">
+        <v>0.27617708270881625</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57">
+        <v>0.5874718776183393</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58">
+        <v>1.8336640033734359</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59">
+        <v>1.3332724187410867</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60">
+        <v>-4.3211423344235805E-2</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>196</v>
+      </c>
+      <c r="D61">
+        <v>2.8336904463680219</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62">
+        <v>0.62397286337625812</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A63">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63">
+        <v>0.38515323037193927</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A64">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64">
+        <v>1.0404876593724939</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A65">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65">
+        <v>1.1074919468402264</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A66">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66">
+        <v>0.66910754108978732</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A67">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67">
+        <v>2.0854358668251765</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68">
+        <v>0.27617708270881625</v>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69">
+        <v>0.5874718776183393</v>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A70">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70">
+        <v>1.8336640033734359</v>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C71" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71">
+        <v>1.3332724187410867</v>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72">
+        <v>-4.3211423344235805E-2</v>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73">
+        <v>2.8336904463680219</v>
+      </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74">
+        <v>0.1308946199804398</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75">
+        <v>8.9000015270398913E-2</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76">
+        <v>0.39288990433664694</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A77">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77">
+        <v>-0.28115298985122994</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A78">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" t="s">
+        <v>195</v>
+      </c>
+      <c r="D78">
+        <v>0.77355901215999789</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79">
+        <v>-0.46867158411392662</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A80">
+        <v>30</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80">
+        <v>-2.4268627166748047E-3</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A81">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C81" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81">
+        <v>9.6514502187135087E-2</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82">
+        <v>0.42239321925776807</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D83">
+        <v>0.33778921001569895</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D84">
+        <v>-0.12347784530202946</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A85">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>195</v>
+      </c>
+      <c r="D85">
+        <v>5.6300682534315138E-2</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A86">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86">
+        <v>-6.5687266410192846E-2</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A87">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>56</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87">
+        <v>2.3930440216597071E-2</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A88">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88">
+        <v>-2.5817693661473184E-2</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A89">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89">
+        <v>0.32535967828076384</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A90">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90">
+        <v>-2.8492832478848235E-2</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A91">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91">
+        <v>5.723876400888539E-2</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A92">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92">
+        <v>-2.4268627166748047E-3</v>
+      </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
+      </c>
+      <c r="D93">
+        <v>9.6514502187135087E-2</v>
+      </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A94">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94">
+        <v>0.42239321925776807</v>
+      </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A95">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95">
+        <v>0.33778921001569895</v>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A96">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D96">
+        <v>-0.12347784530202946</v>
+      </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A97">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97">
+        <v>5.6300682534315138E-2</v>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A98">
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98">
+        <v>0.54185242318131566</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A99">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" t="s">
+        <v>195</v>
+      </c>
+      <c r="D99">
+        <v>0.72049246481633777</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A100">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100" t="s">
+        <v>195</v>
+      </c>
+      <c r="D100">
+        <v>0.57183031919067751</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A101">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" t="s">
+        <v>195</v>
+      </c>
+      <c r="D101">
+        <v>0.19419396035395986</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A102">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102">
+        <v>0.3622535594895262</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A103">
+        <v>24</v>
+      </c>
+      <c r="B103" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" t="s">
+        <v>195</v>
+      </c>
+      <c r="D103">
+        <v>0.83191139713880102</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A104">
+        <v>30</v>
+      </c>
+      <c r="B104" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" t="s">
+        <v>195</v>
+      </c>
+      <c r="D104">
+        <v>0.12033324240040566</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>195</v>
+      </c>
+      <c r="D105">
+        <v>0.29834477514971425</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A106">
+        <v>30</v>
+      </c>
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" t="s">
+        <v>195</v>
+      </c>
+      <c r="D106">
+        <v>0.46996540892152161</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A107">
+        <v>30</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" t="s">
+        <v>195</v>
+      </c>
+      <c r="D107">
+        <v>0.36392753806708278</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A108">
+        <v>30</v>
+      </c>
+      <c r="B108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C108" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108">
+        <v>3.8570388136859313E-2</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109">
+        <v>3.9218507612427345E-2</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A110">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" t="s">
+        <v>195</v>
+      </c>
+      <c r="D110">
+        <v>0.48585548760646813</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A111">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111">
+        <v>0.12284130184435788</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A112">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" t="s">
+        <v>195</v>
+      </c>
+      <c r="D112">
+        <v>0.13163913938961397</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A113">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113">
+        <v>0.38402956707166619</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A114">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>162</v>
+      </c>
+      <c r="C114" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114">
+        <v>0.15142250139452493</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A115">
+        <v>34</v>
+      </c>
+      <c r="B115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" t="s">
+        <v>195</v>
+      </c>
+      <c r="D115">
+        <v>-6.3165898501745796E-2</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A116">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" t="s">
+        <v>195</v>
+      </c>
+      <c r="D116">
+        <v>0.12033324240040566</v>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A117">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" t="s">
+        <v>195</v>
+      </c>
+      <c r="D117">
+        <v>0.29834477514971425</v>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A118">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
+        <v>195</v>
+      </c>
+      <c r="D118">
+        <v>0.46996540892152161</v>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A119">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" t="s">
+        <v>195</v>
+      </c>
+      <c r="D119">
+        <v>0.36392753806708278</v>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A120">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120">
+        <v>3.8570388136859313E-2</v>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121">
+        <v>3.9218507612427345E-2</v>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A122">
+        <v>24</v>
+      </c>
+      <c r="B122" t="s">
+        <v>162</v>
+      </c>
+      <c r="C122" t="s">
+        <v>196</v>
+      </c>
+      <c r="D122">
+        <v>0.49325861352315237</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A123">
+        <v>24</v>
+      </c>
+      <c r="B123" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" t="s">
+        <v>196</v>
+      </c>
+      <c r="D123">
+        <v>5.8698872553787549</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A124">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124">
+        <v>5.5243990709911373</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A125">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D125">
+        <v>2.372756097791282</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A126">
+        <v>24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>162</v>
+      </c>
+      <c r="C126" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126">
+        <v>-4.1071830038581392E-2</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127" t="s">
+        <v>162</v>
+      </c>
+      <c r="C127" t="s">
+        <v>196</v>
+      </c>
+      <c r="D127">
+        <v>4.1991479639061673</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A128">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" t="s">
+        <v>196</v>
+      </c>
+      <c r="D128">
+        <v>-9.2683561780719043E-2</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A129">
+        <v>30</v>
+      </c>
+      <c r="B129" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" t="s">
+        <v>196</v>
+      </c>
+      <c r="D129">
+        <v>1.8678082678846599</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A130">
+        <v>30</v>
+      </c>
+      <c r="B130" t="s">
+        <v>162</v>
+      </c>
+      <c r="C130" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130">
+        <v>1.5600421130539226</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A131">
+        <v>30</v>
+      </c>
+      <c r="B131" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131">
+        <v>0.97967209646011377</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A132">
+        <v>30</v>
+      </c>
+      <c r="B132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C132" t="s">
+        <v>196</v>
+      </c>
+      <c r="D132">
+        <v>1.4154829852192823</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" t="s">
+        <v>196</v>
+      </c>
+      <c r="D133">
+        <v>0.13729437935318051</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A134">
+        <v>34</v>
+      </c>
+      <c r="B134" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" t="s">
+        <v>196</v>
+      </c>
+      <c r="D134">
+        <v>5.8528871628093828</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A135">
+        <v>34</v>
+      </c>
+      <c r="B135" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" t="s">
+        <v>196</v>
+      </c>
+      <c r="D135">
+        <v>2.7219735587374072</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A136">
+        <v>34</v>
+      </c>
+      <c r="B136" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" t="s">
+        <v>196</v>
+      </c>
+      <c r="D136">
+        <v>1.6411479037231014</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A137">
+        <v>34</v>
+      </c>
+      <c r="B137" t="s">
+        <v>162</v>
+      </c>
+      <c r="C137" t="s">
+        <v>196</v>
+      </c>
+      <c r="D137">
+        <v>0.48477234769690153</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A138">
+        <v>34</v>
+      </c>
+      <c r="B138" t="s">
+        <v>162</v>
+      </c>
+      <c r="C138" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138">
+        <v>0.49183115631299346</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A139">
+        <v>34</v>
+      </c>
+      <c r="B139" t="s">
+        <v>162</v>
+      </c>
+      <c r="C139" t="s">
+        <v>196</v>
+      </c>
+      <c r="D139">
+        <v>0.34585259100746923</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>162</v>
+      </c>
+      <c r="C140" t="s">
+        <v>196</v>
+      </c>
+      <c r="D140">
+        <v>-9.2683561780719043E-2</v>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>162</v>
+      </c>
+      <c r="C141" t="s">
+        <v>196</v>
+      </c>
+      <c r="D141">
+        <v>1.8678082678846599</v>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>162</v>
+      </c>
+      <c r="C142" t="s">
+        <v>196</v>
+      </c>
+      <c r="D142">
+        <v>1.5600421130539226</v>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" t="s">
+        <v>196</v>
+      </c>
+      <c r="D143">
+        <v>0.97967209646011377</v>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" t="s">
+        <v>196</v>
+      </c>
+      <c r="D144">
+        <v>1.4154829852192823</v>
+      </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" t="s">
+        <v>196</v>
+      </c>
+      <c r="D145">
+        <v>0.13729437935318051</v>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5AAFFED5B596D4BAE4CE19A95039785" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb12f4776e238e1f586e33791f07bb77">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d40adf4f-7ef1-43d3-876d-177d4150ba93" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fdb1f1d4a4ea75ce4d5cd3fd2a25377c" ns3:_="">
     <xsd:import namespace="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
@@ -18866,10 +24028,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29811117-64F0-425E-BDF0-8D1838742348}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18891,19 +24078,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29811117-64F0-425E-BDF0-8D1838742348}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d40adf4f-7ef1-43d3-876d-177d4150ba93"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gene_temp_data.xlsx
+++ b/Gene_temp_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate_Lab_Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF5291-51AF-4196-AEC8-F9835E720318}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA235E0E-8E56-478B-8A46-21A7632EB1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="679" firstSheet="2" activeTab="8" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="201">
   <si>
     <t>Well Position</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>Rate</t>
+  </si>
+  <si>
+    <t>Microbe_Independent_Rate</t>
+  </si>
+  <si>
+    <t>Microbe_Dependent_Rate</t>
   </si>
 </sst>
 </file>
@@ -3051,7 +3057,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13447713" y="166688"/>
+              <a:off x="19962813" y="166688"/>
               <a:ext cx="5769767" cy="4486274"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -21389,7 +21395,7 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -21419,7 +21425,7 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D2">
         <v>0.73160000000000003</v>
@@ -21436,7 +21442,7 @@
         <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D3">
         <v>0.76327499999999993</v>
@@ -21453,7 +21459,7 @@
         <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D4">
         <v>0.33252500000000002</v>
@@ -21470,7 +21476,7 @@
         <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D5">
         <v>3.04765</v>
@@ -21487,7 +21493,7 @@
         <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D6" t="e">
         <v>#VALUE!</v>
@@ -21504,7 +21510,7 @@
         <v>190</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D7" t="e">
         <v>#VALUE!</v>
@@ -21521,7 +21527,7 @@
         <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>0.40900000000000003</v>
@@ -21538,7 +21544,7 @@
         <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D9">
         <v>0.95307499999999989</v>
@@ -21555,7 +21561,7 @@
         <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D10">
         <v>1.9866249999999999</v>
@@ -21572,7 +21578,7 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D11">
         <v>0.519675</v>
@@ -21589,7 +21595,7 @@
         <v>190</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D12" t="e">
         <v>#VALUE!</v>
@@ -21606,7 +21612,7 @@
         <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D13" t="e">
         <v>#VALUE!</v>
@@ -21623,7 +21629,7 @@
         <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D14">
         <v>-0.13922499999999999</v>
@@ -21640,7 +21646,7 @@
         <v>190</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D15">
         <v>0.23992500000000005</v>
@@ -21657,7 +21663,7 @@
         <v>190</v>
       </c>
       <c r="C16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D16">
         <v>0.38127500000000003</v>
@@ -21674,7 +21680,7 @@
         <v>190</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D17">
         <v>-6.2775000000000025E-2</v>
@@ -21691,7 +21697,7 @@
         <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D18" t="e">
         <v>#VALUE!</v>
@@ -21708,7 +21714,7 @@
         <v>190</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D19" t="e">
         <v>#VALUE!</v>
@@ -21725,7 +21731,7 @@
         <v>190</v>
       </c>
       <c r="C20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D20">
         <v>0.40900000000000003</v>
@@ -21742,7 +21748,7 @@
         <v>190</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D21">
         <v>0.95307499999999989</v>
@@ -21759,7 +21765,7 @@
         <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D22">
         <v>1.9866249999999999</v>
@@ -21776,7 +21782,7 @@
         <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D23">
         <v>0.519675</v>
@@ -21793,7 +21799,7 @@
         <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D24" t="e">
         <v>#VALUE!</v>
@@ -21810,7 +21816,7 @@
         <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D25" t="e">
         <v>#VALUE!</v>
@@ -21827,7 +21833,7 @@
         <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D26">
         <v>12.553775000000002</v>
@@ -21844,7 +21850,7 @@
         <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D27">
         <v>4.8487</v>
@@ -21861,7 +21867,7 @@
         <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D28">
         <v>10.886150000000001</v>
@@ -21878,7 +21884,7 @@
         <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D29">
         <v>7.8204500000000001</v>
@@ -21895,7 +21901,7 @@
         <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D30" t="e">
         <v>#VALUE!</v>
@@ -21912,7 +21918,7 @@
         <v>190</v>
       </c>
       <c r="C31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D31" t="e">
         <v>#VALUE!</v>
@@ -21929,7 +21935,7 @@
         <v>190</v>
       </c>
       <c r="C32" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D32">
         <v>2.6326749999999999</v>
@@ -21946,7 +21952,7 @@
         <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D33">
         <v>1.8601750000000001</v>
@@ -21963,7 +21969,7 @@
         <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D34">
         <v>2.8611999999999997</v>
@@ -21980,7 +21986,7 @@
         <v>190</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D35">
         <v>1.3976</v>
@@ -21997,7 +22003,7 @@
         <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D36">
         <v>6.2445750000000002</v>
@@ -22014,7 +22020,7 @@
         <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D37">
         <v>-9.4299999999999995E-2</v>
@@ -22031,7 +22037,7 @@
         <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D38">
         <v>5.21265</v>
@@ -22048,7 +22054,7 @@
         <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D39">
         <v>2.5057750000000003</v>
@@ -22065,7 +22071,7 @@
         <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D40">
         <v>2.4590749999999999</v>
@@ -22082,7 +22088,7 @@
         <v>190</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D41">
         <v>0.96</v>
@@ -22099,7 +22105,7 @@
         <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D42" t="e">
         <v>#VALUE!</v>
@@ -22116,7 +22122,7 @@
         <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D43">
         <v>0.23477500000000001</v>
@@ -22133,7 +22139,7 @@
         <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D44">
         <v>2.6326749999999999</v>
@@ -22150,7 +22156,7 @@
         <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D45">
         <v>1.8601750000000001</v>
@@ -22167,7 +22173,7 @@
         <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>2.8611999999999997</v>
@@ -22184,7 +22190,7 @@
         <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D47">
         <v>1.3976</v>
@@ -22201,7 +22207,7 @@
         <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D48">
         <v>6.2445750000000002</v>
@@ -22218,7 +22224,7 @@
         <v>190</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <v>-9.4299999999999995E-2</v>
@@ -22235,7 +22241,7 @@
         <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D50">
         <v>1.8640258186287457</v>
@@ -22252,7 +22258,7 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D51">
         <v>3.3410274787169825</v>
@@ -22269,7 +22275,7 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D52">
         <v>5.5736897481267293</v>
@@ -22286,7 +22292,7 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D53">
         <v>3.0641520943480396</v>
@@ -22303,7 +22309,7 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D54">
         <v>3.2279892998511244</v>
@@ -22320,7 +22326,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D55">
         <v>3.094545363816307</v>
@@ -22337,7 +22343,7 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D56">
         <v>0.27617708270881625</v>
@@ -22354,7 +22360,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D57">
         <v>0.5874718776183393</v>
@@ -22371,7 +22377,7 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D58">
         <v>1.8336640033734359</v>
@@ -22388,7 +22394,7 @@
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D59">
         <v>1.3332724187410867</v>
@@ -22405,7 +22411,7 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D60">
         <v>-4.3211423344235805E-2</v>
@@ -22422,7 +22428,7 @@
         <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D61">
         <v>2.8336904463680219</v>
@@ -22439,7 +22445,7 @@
         <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D62">
         <v>0.62397286337625812</v>
@@ -22456,7 +22462,7 @@
         <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D63">
         <v>0.38515323037193927</v>
@@ -22473,7 +22479,7 @@
         <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D64">
         <v>1.0404876593724939</v>
@@ -22490,7 +22496,7 @@
         <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <v>1.1074919468402264</v>
@@ -22507,7 +22513,7 @@
         <v>56</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D66">
         <v>0.66910754108978732</v>
@@ -22524,7 +22530,7 @@
         <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D67">
         <v>2.0854358668251765</v>
@@ -22541,7 +22547,7 @@
         <v>56</v>
       </c>
       <c r="C68" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D68">
         <v>0.27617708270881625</v>
@@ -22558,7 +22564,7 @@
         <v>56</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D69">
         <v>0.5874718776183393</v>
@@ -22575,7 +22581,7 @@
         <v>56</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D70">
         <v>1.8336640033734359</v>
@@ -22592,7 +22598,7 @@
         <v>56</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D71">
         <v>1.3332724187410867</v>
@@ -22609,7 +22615,7 @@
         <v>56</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D72">
         <v>-4.3211423344235805E-2</v>
@@ -22626,7 +22632,7 @@
         <v>56</v>
       </c>
       <c r="C73" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D73">
         <v>2.8336904463680219</v>
@@ -22643,7 +22649,7 @@
         <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D74">
         <v>0.1308946199804398</v>
@@ -22660,7 +22666,7 @@
         <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D75">
         <v>8.9000015270398913E-2</v>
@@ -22677,7 +22683,7 @@
         <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D76">
         <v>0.39288990433664694</v>
@@ -22694,7 +22700,7 @@
         <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D77">
         <v>-0.28115298985122994</v>
@@ -22711,7 +22717,7 @@
         <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D78">
         <v>0.77355901215999789</v>
@@ -22728,7 +22734,7 @@
         <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D79">
         <v>-0.46867158411392662</v>
@@ -22745,7 +22751,7 @@
         <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D80">
         <v>-2.4268627166748047E-3</v>
@@ -22762,7 +22768,7 @@
         <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D81">
         <v>9.6514502187135087E-2</v>
@@ -22779,7 +22785,7 @@
         <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D82">
         <v>0.42239321925776807</v>
@@ -22796,7 +22802,7 @@
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D83">
         <v>0.33778921001569895</v>
@@ -22813,7 +22819,7 @@
         <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D84">
         <v>-0.12347784530202946</v>
@@ -22830,7 +22836,7 @@
         <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D85">
         <v>5.6300682534315138E-2</v>
@@ -22847,7 +22853,7 @@
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D86">
         <v>-6.5687266410192846E-2</v>
@@ -22864,7 +22870,7 @@
         <v>56</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D87">
         <v>2.3930440216597071E-2</v>
@@ -22881,7 +22887,7 @@
         <v>56</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D88">
         <v>-2.5817693661473184E-2</v>
@@ -22898,7 +22904,7 @@
         <v>56</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D89">
         <v>0.32535967828076384</v>
@@ -22915,7 +22921,7 @@
         <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D90">
         <v>-2.8492832478848235E-2</v>
@@ -22932,7 +22938,7 @@
         <v>56</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D91">
         <v>5.723876400888539E-2</v>
@@ -22949,7 +22955,7 @@
         <v>56</v>
       </c>
       <c r="C92" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D92">
         <v>-2.4268627166748047E-3</v>
@@ -22966,7 +22972,7 @@
         <v>56</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D93">
         <v>9.6514502187135087E-2</v>
@@ -22983,7 +22989,7 @@
         <v>56</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D94">
         <v>0.42239321925776807</v>
@@ -23000,7 +23006,7 @@
         <v>56</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D95">
         <v>0.33778921001569895</v>
@@ -23017,7 +23023,7 @@
         <v>56</v>
       </c>
       <c r="C96" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D96">
         <v>-0.12347784530202946</v>
@@ -23034,7 +23040,7 @@
         <v>56</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D97">
         <v>5.6300682534315138E-2</v>
@@ -23051,7 +23057,7 @@
         <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D98">
         <v>0.54185242318131566</v>
@@ -23068,7 +23074,7 @@
         <v>162</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D99">
         <v>0.72049246481633777</v>
@@ -23085,7 +23091,7 @@
         <v>162</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D100">
         <v>0.57183031919067751</v>
@@ -23102,7 +23108,7 @@
         <v>162</v>
       </c>
       <c r="C101" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D101">
         <v>0.19419396035395986</v>
@@ -23119,7 +23125,7 @@
         <v>162</v>
       </c>
       <c r="C102" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D102">
         <v>0.3622535594895262</v>
@@ -23136,7 +23142,7 @@
         <v>162</v>
       </c>
       <c r="C103" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D103">
         <v>0.83191139713880102</v>
@@ -23153,7 +23159,7 @@
         <v>162</v>
       </c>
       <c r="C104" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D104">
         <v>0.12033324240040566</v>
@@ -23170,7 +23176,7 @@
         <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D105">
         <v>0.29834477514971425</v>
@@ -23187,7 +23193,7 @@
         <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D106">
         <v>0.46996540892152161</v>
@@ -23204,7 +23210,7 @@
         <v>162</v>
       </c>
       <c r="C107" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D107">
         <v>0.36392753806708278</v>
@@ -23221,7 +23227,7 @@
         <v>162</v>
       </c>
       <c r="C108" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D108">
         <v>3.8570388136859313E-2</v>
@@ -23238,7 +23244,7 @@
         <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D109">
         <v>3.9218507612427345E-2</v>
@@ -23255,7 +23261,7 @@
         <v>162</v>
       </c>
       <c r="C110" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D110">
         <v>0.48585548760646813</v>
@@ -23272,7 +23278,7 @@
         <v>162</v>
       </c>
       <c r="C111" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D111">
         <v>0.12284130184435788</v>
@@ -23289,7 +23295,7 @@
         <v>162</v>
       </c>
       <c r="C112" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D112">
         <v>0.13163913938961397</v>
@@ -23306,7 +23312,7 @@
         <v>162</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D113">
         <v>0.38402956707166619</v>
@@ -23323,7 +23329,7 @@
         <v>162</v>
       </c>
       <c r="C114" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D114">
         <v>0.15142250139452493</v>
@@ -23340,7 +23346,7 @@
         <v>162</v>
       </c>
       <c r="C115" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D115">
         <v>-6.3165898501745796E-2</v>
@@ -23357,7 +23363,7 @@
         <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D116">
         <v>0.12033324240040566</v>
@@ -23374,7 +23380,7 @@
         <v>162</v>
       </c>
       <c r="C117" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D117">
         <v>0.29834477514971425</v>
@@ -23391,7 +23397,7 @@
         <v>162</v>
       </c>
       <c r="C118" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D118">
         <v>0.46996540892152161</v>
@@ -23408,7 +23414,7 @@
         <v>162</v>
       </c>
       <c r="C119" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D119">
         <v>0.36392753806708278</v>
@@ -23425,7 +23431,7 @@
         <v>162</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D120">
         <v>3.8570388136859313E-2</v>
@@ -23442,7 +23448,7 @@
         <v>162</v>
       </c>
       <c r="C121" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D121">
         <v>3.9218507612427345E-2</v>
@@ -23459,7 +23465,7 @@
         <v>162</v>
       </c>
       <c r="C122" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D122">
         <v>0.49325861352315237</v>
@@ -23476,7 +23482,7 @@
         <v>162</v>
       </c>
       <c r="C123" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D123">
         <v>5.8698872553787549</v>
@@ -23493,7 +23499,7 @@
         <v>162</v>
       </c>
       <c r="C124" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D124">
         <v>5.5243990709911373</v>
@@ -23510,7 +23516,7 @@
         <v>162</v>
       </c>
       <c r="C125" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D125">
         <v>2.372756097791282</v>
@@ -23527,7 +23533,7 @@
         <v>162</v>
       </c>
       <c r="C126" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D126">
         <v>-4.1071830038581392E-2</v>
@@ -23544,7 +23550,7 @@
         <v>162</v>
       </c>
       <c r="C127" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D127">
         <v>4.1991479639061673</v>
@@ -23561,7 +23567,7 @@
         <v>162</v>
       </c>
       <c r="C128" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D128">
         <v>-9.2683561780719043E-2</v>
@@ -23578,7 +23584,7 @@
         <v>162</v>
       </c>
       <c r="C129" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D129">
         <v>1.8678082678846599</v>
@@ -23595,7 +23601,7 @@
         <v>162</v>
       </c>
       <c r="C130" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D130">
         <v>1.5600421130539226</v>
@@ -23612,7 +23618,7 @@
         <v>162</v>
       </c>
       <c r="C131" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D131">
         <v>0.97967209646011377</v>
@@ -23629,7 +23635,7 @@
         <v>162</v>
       </c>
       <c r="C132" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D132">
         <v>1.4154829852192823</v>
@@ -23646,7 +23652,7 @@
         <v>162</v>
       </c>
       <c r="C133" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D133">
         <v>0.13729437935318051</v>
@@ -23663,7 +23669,7 @@
         <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D134">
         <v>5.8528871628093828</v>
@@ -23680,7 +23686,7 @@
         <v>162</v>
       </c>
       <c r="C135" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D135">
         <v>2.7219735587374072</v>
@@ -23697,7 +23703,7 @@
         <v>162</v>
       </c>
       <c r="C136" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D136">
         <v>1.6411479037231014</v>
@@ -23714,7 +23720,7 @@
         <v>162</v>
       </c>
       <c r="C137" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D137">
         <v>0.48477234769690153</v>
@@ -23731,7 +23737,7 @@
         <v>162</v>
       </c>
       <c r="C138" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D138">
         <v>0.49183115631299346</v>
@@ -23748,7 +23754,7 @@
         <v>162</v>
       </c>
       <c r="C139" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D139">
         <v>0.34585259100746923</v>
@@ -23765,7 +23771,7 @@
         <v>162</v>
       </c>
       <c r="C140" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D140">
         <v>-9.2683561780719043E-2</v>
@@ -23782,7 +23788,7 @@
         <v>162</v>
       </c>
       <c r="C141" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D141">
         <v>1.8678082678846599</v>
@@ -23799,7 +23805,7 @@
         <v>162</v>
       </c>
       <c r="C142" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D142">
         <v>1.5600421130539226</v>
@@ -23816,7 +23822,7 @@
         <v>162</v>
       </c>
       <c r="C143" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D143">
         <v>0.97967209646011377</v>
@@ -23833,7 +23839,7 @@
         <v>162</v>
       </c>
       <c r="C144" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D144">
         <v>1.4154829852192823</v>
@@ -23850,7 +23856,7 @@
         <v>162</v>
       </c>
       <c r="C145" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D145">
         <v>0.13729437935318051</v>
@@ -24029,18 +24035,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24062,6 +24068,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6078DB98-64DD-44CA-A39B-9F3CF9F2C375}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -24075,12 +24089,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Gene_temp_data.xlsx
+++ b/Gene_temp_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linzm\Documents\Tate_Lab_Rotation\Tate_Rotation_Temp_Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA235E0E-8E56-478B-8A46-21A7632EB1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F456A600-E3E6-48D3-9841-0A71BAFB0322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="679" firstSheet="2" activeTab="8" xr2:uid="{B3C2EB18-1E1E-4520-B7BE-6EC39DD43585}"/>
   </bookViews>
@@ -3431,8 +3431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95ABB9B5-9451-4E98-A30F-1DC948C739E5}">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="G30" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:Q43"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -16534,7 +16534,7 @@
   <dimension ref="A1:I217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E218" sqref="E218"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -20279,8 +20279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66E83A-C69F-4B45-BCC6-D1430A4D8449}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -21395,10 +21395,13 @@
   <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
@@ -24035,18 +24038,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24068,14 +24071,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6078DB98-64DD-44CA-A39B-9F3CF9F2C375}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -24089,4 +24084,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34B288BE-7AE7-404E-A200-18C81F874FA2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>